--- a/РАБОЧИЙ СТОЛ/24,11,25 Мираторг ЗПФ Ташкент/дв 24,11,25 тшрсч мртрг зпф.xlsx
+++ b/РАБОЧИЙ СТОЛ/24,11,25 Мираторг ЗПФ Ташкент/дв 24,11,25 тшрсч мртрг зпф.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\24,11,25 Мираторг ЗПФ Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50453665-6C12-47E9-93EB-3030E4B5C099}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5945C225-7564-41D4-9C8E-C68E0C39B03D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -512,9 +512,6 @@
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -529,6 +526,9 @@
     <xf numFmtId="164" fontId="1" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="8" fillId="7" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Arial10px" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -832,13 +832,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AY500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T6" sqref="T6"/>
+      <selection pane="bottomRight" activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,7 +870,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="16"/>
+      <c r="G1" s="15"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -877,7 +878,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="26" t="s">
         <v>86</v>
       </c>
       <c r="P1" s="1"/>
@@ -924,7 +925,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="16"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -932,7 +933,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="12"/>
+      <c r="O2" s="26"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -989,7 +990,7 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -1094,7 +1095,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="16"/>
+      <c r="G4" s="15"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1175,7 +1176,7 @@
         <f>SUM(F6:F500)</f>
         <v>1774</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="15"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -1292,7 +1293,7 @@
       <c r="F6" s="1">
         <v>4</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="15">
         <v>0.4</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -1354,7 +1355,7 @@
       <c r="AD6" s="1">
         <v>1</v>
       </c>
-      <c r="AE6" s="26" t="s">
+      <c r="AE6" s="25" t="s">
         <v>36</v>
       </c>
       <c r="AF6" s="1">
@@ -1381,83 +1382,83 @@
       <c r="AX6" s="1"/>
       <c r="AY6" s="1"/>
     </row>
-    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="12">
         <v>12</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12">
         <v>12</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>0</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="12">
         <v>730</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13">
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13">
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12">
         <f t="shared" ref="Q7:Q43" si="3">E7/5</f>
         <v>0</v>
       </c>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13" t="e">
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12" t="e">
         <f t="shared" ref="U7:U43" si="4">(F7+P7+R7)/Q7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V7" s="13" t="e">
+      <c r="V7" s="12" t="e">
         <f t="shared" ref="V7:V43" si="5">(F7+P7)/Q7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W7" s="13">
+      <c r="W7" s="12">
         <v>0.2</v>
       </c>
-      <c r="X7" s="13">
+      <c r="X7" s="12">
         <v>2.4</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="Y7" s="12">
         <v>0</v>
       </c>
-      <c r="Z7" s="13">
+      <c r="Z7" s="12">
         <v>1.2</v>
       </c>
-      <c r="AA7" s="13">
+      <c r="AA7" s="12">
         <v>0</v>
       </c>
-      <c r="AB7" s="13">
+      <c r="AB7" s="12">
         <v>0</v>
       </c>
-      <c r="AC7" s="13">
+      <c r="AC7" s="12">
         <v>0</v>
       </c>
-      <c r="AD7" s="13">
+      <c r="AD7" s="12">
         <v>-0.4</v>
       </c>
-      <c r="AE7" s="13" t="s">
+      <c r="AE7" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AF7" s="13"/>
+      <c r="AF7" s="12"/>
       <c r="AG7" s="1"/>
       <c r="AH7" s="1"/>
       <c r="AI7" s="1"/>
@@ -1495,7 +1496,7 @@
       <c r="F8" s="1">
         <v>58</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="15">
         <v>0.3</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -1555,7 +1556,7 @@
       <c r="AD8" s="1">
         <v>5.4</v>
       </c>
-      <c r="AE8" s="26" t="s">
+      <c r="AE8" s="25" t="s">
         <v>36</v>
       </c>
       <c r="AF8" s="1">
@@ -1599,7 +1600,7 @@
       <c r="F9" s="1">
         <v>33</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="15">
         <v>0.4</v>
       </c>
       <c r="H9" s="1">
@@ -1661,7 +1662,7 @@
       <c r="AD9" s="1">
         <v>3.6</v>
       </c>
-      <c r="AE9" s="26" t="s">
+      <c r="AE9" s="25" t="s">
         <v>36</v>
       </c>
       <c r="AF9" s="1">
@@ -1705,7 +1706,7 @@
       <c r="F10" s="1">
         <v>40</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="15">
         <v>0.4</v>
       </c>
       <c r="H10" s="1">
@@ -1765,7 +1766,7 @@
       <c r="AD10" s="1">
         <v>13.6</v>
       </c>
-      <c r="AE10" s="24" t="s">
+      <c r="AE10" s="23" t="s">
         <v>41</v>
       </c>
       <c r="AF10" s="1">
@@ -1809,7 +1810,7 @@
       <c r="F11" s="1">
         <v>65</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="15">
         <v>0.4</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -1869,7 +1870,7 @@
       <c r="AD11" s="1">
         <v>11.4</v>
       </c>
-      <c r="AE11" s="26" t="s">
+      <c r="AE11" s="25" t="s">
         <v>36</v>
       </c>
       <c r="AF11" s="1">
@@ -1896,81 +1897,81 @@
       <c r="AX11" s="1"/>
       <c r="AY11" s="1"/>
     </row>
-    <row r="12" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="12">
         <v>1</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13">
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12">
         <v>1</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <v>0</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="I12" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13">
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13">
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R12" s="15"/>
-      <c r="S12" s="15"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13" t="e">
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V12" s="13" t="e">
+      <c r="V12" s="12" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W12" s="13">
+      <c r="W12" s="12">
         <v>0</v>
       </c>
-      <c r="X12" s="13">
+      <c r="X12" s="12">
         <v>0</v>
       </c>
-      <c r="Y12" s="13">
+      <c r="Y12" s="12">
         <v>0</v>
       </c>
-      <c r="Z12" s="13">
+      <c r="Z12" s="12">
         <v>0</v>
       </c>
-      <c r="AA12" s="13">
+      <c r="AA12" s="12">
         <v>0</v>
       </c>
-      <c r="AB12" s="13">
+      <c r="AB12" s="12">
         <v>0</v>
       </c>
-      <c r="AC12" s="13">
+      <c r="AC12" s="12">
         <v>0</v>
       </c>
-      <c r="AD12" s="13">
+      <c r="AD12" s="12">
         <v>0</v>
       </c>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
+      <c r="AE12" s="12"/>
+      <c r="AF12" s="12"/>
       <c r="AG12" s="1"/>
       <c r="AH12" s="1"/>
       <c r="AI12" s="1"/>
@@ -2008,7 +2009,7 @@
       <c r="F13" s="1">
         <v>40</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <v>0.5</v>
       </c>
       <c r="H13" s="1">
@@ -2068,7 +2069,7 @@
       <c r="AD13" s="1">
         <v>2.8</v>
       </c>
-      <c r="AE13" s="26" t="s">
+      <c r="AE13" s="25" t="s">
         <v>36</v>
       </c>
       <c r="AF13" s="1">
@@ -2112,7 +2113,7 @@
       <c r="F14" s="1">
         <v>26</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>0.4</v>
       </c>
       <c r="H14" s="1">
@@ -2174,7 +2175,7 @@
       <c r="AD14" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE14" s="26" t="s">
+      <c r="AE14" s="25" t="s">
         <v>36</v>
       </c>
       <c r="AF14" s="1">
@@ -2218,7 +2219,7 @@
       <c r="F15" s="1">
         <v>30</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G15" s="15">
         <v>0.4</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -2280,7 +2281,7 @@
       <c r="AD15" s="1">
         <v>13</v>
       </c>
-      <c r="AE15" s="24" t="s">
+      <c r="AE15" s="23" t="s">
         <v>41</v>
       </c>
       <c r="AF15" s="1">
@@ -2324,7 +2325,7 @@
       <c r="F16" s="1">
         <v>21</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="15">
         <v>0.4</v>
       </c>
       <c r="H16" s="1">
@@ -2386,7 +2387,7 @@
       <c r="AD16" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE16" s="24" t="s">
+      <c r="AE16" s="23" t="s">
         <v>41</v>
       </c>
       <c r="AF16" s="1">
@@ -2426,7 +2427,7 @@
       <c r="F17" s="1">
         <v>50</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="15">
         <v>0.25</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -2482,7 +2483,7 @@
       <c r="AD17" s="1">
         <v>0</v>
       </c>
-      <c r="AE17" s="25" t="s">
+      <c r="AE17" s="24" t="s">
         <v>88</v>
       </c>
       <c r="AF17" s="1">
@@ -2526,7 +2527,7 @@
       <c r="F18" s="1">
         <v>-5</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="15">
         <v>0.3</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -2615,79 +2616,79 @@
       <c r="AX18" s="1"/>
       <c r="AY18" s="1"/>
     </row>
-    <row r="19" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="20">
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="19">
         <v>0</v>
       </c>
-      <c r="H19" s="19" t="s">
+      <c r="H19" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="18">
         <v>1010027987</v>
       </c>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19">
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="19"/>
-      <c r="Q19" s="19">
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="19"/>
-      <c r="U19" s="19" t="e">
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V19" s="19" t="e">
+      <c r="V19" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W19" s="19">
+      <c r="W19" s="18">
         <v>0</v>
       </c>
-      <c r="X19" s="19">
+      <c r="X19" s="18">
         <v>0</v>
       </c>
-      <c r="Y19" s="19">
+      <c r="Y19" s="18">
         <v>0</v>
       </c>
-      <c r="Z19" s="19">
+      <c r="Z19" s="18">
         <v>0</v>
       </c>
-      <c r="AA19" s="19">
+      <c r="AA19" s="18">
         <v>0</v>
       </c>
-      <c r="AB19" s="19">
+      <c r="AB19" s="18">
         <v>0</v>
       </c>
-      <c r="AC19" s="19">
+      <c r="AC19" s="18">
         <v>0</v>
       </c>
-      <c r="AD19" s="19">
+      <c r="AD19" s="18">
         <v>0</v>
       </c>
-      <c r="AE19" s="19" t="s">
+      <c r="AE19" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AF19" s="19"/>
+      <c r="AF19" s="18"/>
       <c r="AG19" s="1"/>
       <c r="AH19" s="1"/>
       <c r="AI19" s="1"/>
@@ -2708,79 +2709,79 @@
       <c r="AX19" s="1"/>
       <c r="AY19" s="1"/>
     </row>
-    <row r="20" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="20">
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="19">
         <v>0</v>
       </c>
-      <c r="H20" s="19" t="s">
+      <c r="H20" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="18">
         <v>1010003864</v>
       </c>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19">
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="19"/>
-      <c r="Q20" s="19">
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19" t="e">
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V20" s="19" t="e">
+      <c r="V20" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W20" s="19">
+      <c r="W20" s="18">
         <v>0</v>
       </c>
-      <c r="X20" s="19">
+      <c r="X20" s="18">
         <v>0</v>
       </c>
-      <c r="Y20" s="19">
+      <c r="Y20" s="18">
         <v>0</v>
       </c>
-      <c r="Z20" s="19">
+      <c r="Z20" s="18">
         <v>0</v>
       </c>
-      <c r="AA20" s="19">
+      <c r="AA20" s="18">
         <v>0</v>
       </c>
-      <c r="AB20" s="19">
+      <c r="AB20" s="18">
         <v>0</v>
       </c>
-      <c r="AC20" s="19">
+      <c r="AC20" s="18">
         <v>0</v>
       </c>
-      <c r="AD20" s="19">
+      <c r="AD20" s="18">
         <v>0</v>
       </c>
-      <c r="AE20" s="19" t="s">
+      <c r="AE20" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AF20" s="19"/>
+      <c r="AF20" s="18"/>
       <c r="AG20" s="1"/>
       <c r="AH20" s="1"/>
       <c r="AI20" s="1"/>
@@ -2818,7 +2819,7 @@
       <c r="F21" s="1">
         <v>227</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="15">
         <v>0.3</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -2880,7 +2881,7 @@
       <c r="AD21" s="1">
         <v>40.6</v>
       </c>
-      <c r="AE21" s="26" t="s">
+      <c r="AE21" s="25" t="s">
         <v>36</v>
       </c>
       <c r="AF21" s="1">
@@ -2924,7 +2925,7 @@
       <c r="F22" s="1">
         <v>168</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="15">
         <v>0.3</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -2986,7 +2987,7 @@
       <c r="AD22" s="1">
         <v>41.2</v>
       </c>
-      <c r="AE22" s="26" t="s">
+      <c r="AE22" s="25" t="s">
         <v>36</v>
       </c>
       <c r="AF22" s="1">
@@ -3013,85 +3014,85 @@
       <c r="AX22" s="1"/>
       <c r="AY22" s="1"/>
     </row>
-    <row r="23" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
+    <row r="23" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="12">
         <v>4</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13">
+      <c r="D23" s="12"/>
+      <c r="E23" s="12">
         <v>-5</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <v>4</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="17">
         <v>0</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="I23" s="13" t="s">
+      <c r="I23" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13">
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12">
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="M23" s="13"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="13"/>
-      <c r="Q23" s="13">
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12">
         <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="R23" s="15"/>
-      <c r="S23" s="15"/>
-      <c r="T23" s="13"/>
-      <c r="U23" s="13">
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12">
         <f t="shared" si="4"/>
         <v>-4</v>
       </c>
-      <c r="V23" s="13">
+      <c r="V23" s="12">
         <f t="shared" si="5"/>
         <v>-4</v>
       </c>
-      <c r="W23" s="13">
+      <c r="W23" s="12">
         <v>-3</v>
       </c>
-      <c r="X23" s="13">
+      <c r="X23" s="12">
         <v>0</v>
       </c>
-      <c r="Y23" s="13">
+      <c r="Y23" s="12">
         <v>0</v>
       </c>
-      <c r="Z23" s="13">
+      <c r="Z23" s="12">
         <v>-0.4</v>
       </c>
-      <c r="AA23" s="13">
+      <c r="AA23" s="12">
         <v>0.2</v>
       </c>
-      <c r="AB23" s="13">
+      <c r="AB23" s="12">
         <v>7.2</v>
       </c>
-      <c r="AC23" s="13">
+      <c r="AC23" s="12">
         <v>7.4</v>
       </c>
-      <c r="AD23" s="13">
+      <c r="AD23" s="12">
         <v>7.4</v>
       </c>
-      <c r="AE23" s="13" t="s">
+      <c r="AE23" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AF23" s="13"/>
+      <c r="AF23" s="12"/>
       <c r="AG23" s="1"/>
       <c r="AH23" s="1"/>
       <c r="AI23" s="1"/>
@@ -3129,7 +3130,7 @@
       <c r="F24" s="1">
         <v>91</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G24" s="15">
         <v>0.4</v>
       </c>
       <c r="H24" s="1">
@@ -3191,7 +3192,7 @@
       <c r="AD24" s="1">
         <v>5</v>
       </c>
-      <c r="AE24" s="24" t="s">
+      <c r="AE24" s="23" t="s">
         <v>41</v>
       </c>
       <c r="AF24" s="1">
@@ -3235,7 +3236,7 @@
       <c r="F25" s="1">
         <v>85</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G25" s="15">
         <v>0.7</v>
       </c>
       <c r="H25" s="1">
@@ -3297,7 +3298,7 @@
       <c r="AD25" s="1">
         <v>4</v>
       </c>
-      <c r="AE25" s="24" t="s">
+      <c r="AE25" s="23" t="s">
         <v>41</v>
       </c>
       <c r="AF25" s="1">
@@ -3341,7 +3342,7 @@
       <c r="F26" s="1">
         <v>23</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="15">
         <v>0.4</v>
       </c>
       <c r="H26" s="1">
@@ -3403,7 +3404,7 @@
       <c r="AD26" s="1">
         <v>0.8</v>
       </c>
-      <c r="AE26" s="26" t="s">
+      <c r="AE26" s="25" t="s">
         <v>36</v>
       </c>
       <c r="AF26" s="1">
@@ -3447,7 +3448,7 @@
       <c r="F27" s="1">
         <v>36</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="15">
         <v>0.2</v>
       </c>
       <c r="H27" s="1">
@@ -3507,7 +3508,7 @@
       <c r="AD27" s="1">
         <v>0.6</v>
       </c>
-      <c r="AE27" s="25" t="s">
+      <c r="AE27" s="24" t="s">
         <v>89</v>
       </c>
       <c r="AF27" s="1">
@@ -3551,7 +3552,7 @@
       <c r="F28" s="1">
         <v>47</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="15">
         <v>0.32</v>
       </c>
       <c r="H28" s="1">
@@ -3611,7 +3612,7 @@
       <c r="AD28" s="1">
         <v>0</v>
       </c>
-      <c r="AE28" s="26" t="s">
+      <c r="AE28" s="25" t="s">
         <v>36</v>
       </c>
       <c r="AF28" s="1">
@@ -3655,7 +3656,7 @@
       <c r="F29" s="1">
         <v>6</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="15">
         <v>0.2</v>
       </c>
       <c r="H29" s="1">
@@ -3761,7 +3762,7 @@
       <c r="F30" s="1">
         <v>11</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="15">
         <v>0.32</v>
       </c>
       <c r="H30" s="1">
@@ -3863,7 +3864,7 @@
       <c r="F31" s="1">
         <v>23</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G31" s="15">
         <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -3925,7 +3926,7 @@
       <c r="AD31" s="1">
         <v>1.7796000000000001</v>
       </c>
-      <c r="AE31" s="25" t="s">
+      <c r="AE31" s="24" t="s">
         <v>41</v>
       </c>
       <c r="AF31" s="1">
@@ -3969,7 +3970,7 @@
       <c r="F32" s="1">
         <v>59</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G32" s="15">
         <v>0.28000000000000003</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -4029,7 +4030,7 @@
       <c r="AD32" s="1">
         <v>6</v>
       </c>
-      <c r="AE32" s="26" t="s">
+      <c r="AE32" s="25" t="s">
         <v>36</v>
       </c>
       <c r="AF32" s="1">
@@ -4073,7 +4074,7 @@
       <c r="F33" s="1">
         <v>60</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G33" s="15">
         <v>0.28000000000000003</v>
       </c>
       <c r="H33" s="1">
@@ -4133,7 +4134,7 @@
       <c r="AD33" s="1">
         <v>7</v>
       </c>
-      <c r="AE33" s="26" t="s">
+      <c r="AE33" s="25" t="s">
         <v>36</v>
       </c>
       <c r="AF33" s="1">
@@ -4177,7 +4178,7 @@
       <c r="F34" s="1">
         <v>31</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="15">
         <v>0.28000000000000003</v>
       </c>
       <c r="H34" s="1">
@@ -4237,7 +4238,7 @@
       <c r="AD34" s="1">
         <v>3</v>
       </c>
-      <c r="AE34" s="25" t="s">
+      <c r="AE34" s="24" t="s">
         <v>87</v>
       </c>
       <c r="AF34" s="1">
@@ -4264,79 +4265,79 @@
       <c r="AX34" s="1"/>
       <c r="AY34" s="1"/>
     </row>
-    <row r="35" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="19"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="20">
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="19">
         <v>0</v>
       </c>
-      <c r="H35" s="19">
+      <c r="H35" s="18">
         <v>730</v>
       </c>
-      <c r="I35" s="19">
+      <c r="I35" s="18">
         <v>10010024503</v>
       </c>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19">
+      <c r="J35" s="18"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19">
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="18"/>
+      <c r="Q35" s="18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R35" s="22"/>
-      <c r="S35" s="22"/>
-      <c r="T35" s="19"/>
-      <c r="U35" s="19" t="e">
+      <c r="R35" s="21"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="18" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V35" s="19" t="e">
+      <c r="V35" s="18" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W35" s="19">
+      <c r="W35" s="18">
         <v>0</v>
       </c>
-      <c r="X35" s="19">
+      <c r="X35" s="18">
         <v>0</v>
       </c>
-      <c r="Y35" s="19">
+      <c r="Y35" s="18">
         <v>0</v>
       </c>
-      <c r="Z35" s="19">
+      <c r="Z35" s="18">
         <v>0</v>
       </c>
-      <c r="AA35" s="19">
+      <c r="AA35" s="18">
         <v>0</v>
       </c>
-      <c r="AB35" s="19">
+      <c r="AB35" s="18">
         <v>0</v>
       </c>
-      <c r="AC35" s="19">
+      <c r="AC35" s="18">
         <v>0</v>
       </c>
-      <c r="AD35" s="19">
+      <c r="AD35" s="18">
         <v>0</v>
       </c>
-      <c r="AE35" s="19" t="s">
+      <c r="AE35" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="AF35" s="19"/>
+      <c r="AF35" s="18"/>
       <c r="AG35" s="1"/>
       <c r="AH35" s="1"/>
       <c r="AI35" s="1"/>
@@ -4358,7 +4359,7 @@
       <c r="AY35" s="1"/>
     </row>
     <row r="36" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="22" t="s">
         <v>76</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -4368,7 +4369,7 @@
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
-      <c r="G36" s="16">
+      <c r="G36" s="15">
         <v>0.4</v>
       </c>
       <c r="H36" s="1">
@@ -4472,7 +4473,7 @@
       <c r="F37" s="1">
         <v>375</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G37" s="15">
         <v>0.75</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -4532,7 +4533,7 @@
       <c r="AD37" s="1">
         <v>0</v>
       </c>
-      <c r="AE37" s="25" t="s">
+      <c r="AE37" s="24" t="s">
         <v>90</v>
       </c>
       <c r="AF37" s="1">
@@ -4559,77 +4560,77 @@
       <c r="AX37" s="1"/>
       <c r="AY37" s="1"/>
     </row>
-    <row r="38" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A38" s="13" t="s">
+    <row r="38" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B38" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="18">
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="17">
         <v>0</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="12">
         <v>730</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="I38" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J38" s="13"/>
-      <c r="K38" s="13"/>
-      <c r="L38" s="13">
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M38" s="13"/>
-      <c r="N38" s="13"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13">
+      <c r="M38" s="12"/>
+      <c r="N38" s="12"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="R38" s="15"/>
-      <c r="S38" s="15"/>
-      <c r="T38" s="13"/>
-      <c r="U38" s="13" t="e">
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V38" s="13" t="e">
+      <c r="V38" s="12" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W38" s="13">
+      <c r="W38" s="12">
         <v>0</v>
       </c>
-      <c r="X38" s="13">
+      <c r="X38" s="12">
         <v>0</v>
       </c>
-      <c r="Y38" s="13">
+      <c r="Y38" s="12">
         <v>0</v>
       </c>
-      <c r="Z38" s="13">
+      <c r="Z38" s="12">
         <v>0</v>
       </c>
-      <c r="AA38" s="13">
+      <c r="AA38" s="12">
         <v>0</v>
       </c>
-      <c r="AB38" s="13">
+      <c r="AB38" s="12">
         <v>0</v>
       </c>
-      <c r="AC38" s="13">
+      <c r="AC38" s="12">
         <v>10.8</v>
       </c>
-      <c r="AD38" s="13">
+      <c r="AD38" s="12">
         <v>11.6</v>
       </c>
-      <c r="AE38" s="13"/>
-      <c r="AF38" s="13"/>
+      <c r="AE38" s="12"/>
+      <c r="AF38" s="12"/>
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
@@ -4650,85 +4651,85 @@
       <c r="AX38" s="1"/>
       <c r="AY38" s="1"/>
     </row>
-    <row r="39" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+    <row r="39" spans="1:51" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B39" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="12">
         <v>104</v>
       </c>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13">
+      <c r="D39" s="12"/>
+      <c r="E39" s="12">
         <v>-7</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="12">
         <v>104</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="17">
         <v>0</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="12">
         <v>730</v>
       </c>
-      <c r="I39" s="13" t="s">
+      <c r="I39" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J39" s="13"/>
-      <c r="K39" s="13"/>
-      <c r="L39" s="13">
+      <c r="J39" s="12"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12">
         <f t="shared" si="2"/>
         <v>-7</v>
       </c>
-      <c r="M39" s="13"/>
-      <c r="N39" s="13"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13">
+      <c r="M39" s="12"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12">
         <f t="shared" si="3"/>
         <v>-1.4</v>
       </c>
-      <c r="R39" s="15"/>
-      <c r="S39" s="15"/>
-      <c r="T39" s="13"/>
-      <c r="U39" s="13">
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12">
         <f t="shared" si="4"/>
         <v>-74.285714285714292</v>
       </c>
-      <c r="V39" s="13">
+      <c r="V39" s="12">
         <f t="shared" si="5"/>
         <v>-74.285714285714292</v>
       </c>
-      <c r="W39" s="13">
+      <c r="W39" s="12">
         <v>-0.8</v>
       </c>
-      <c r="X39" s="13">
+      <c r="X39" s="12">
         <v>0</v>
       </c>
-      <c r="Y39" s="13">
+      <c r="Y39" s="12">
         <v>0</v>
       </c>
-      <c r="Z39" s="13">
+      <c r="Z39" s="12">
         <v>-0.2</v>
       </c>
-      <c r="AA39" s="13">
+      <c r="AA39" s="12">
         <v>0</v>
       </c>
-      <c r="AB39" s="13">
+      <c r="AB39" s="12">
         <v>1</v>
       </c>
-      <c r="AC39" s="13">
+      <c r="AC39" s="12">
         <v>0</v>
       </c>
-      <c r="AD39" s="13">
+      <c r="AD39" s="12">
         <v>0</v>
       </c>
-      <c r="AE39" s="13" t="s">
+      <c r="AE39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AF39" s="13"/>
+      <c r="AF39" s="12"/>
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
@@ -4766,7 +4767,7 @@
       <c r="F40" s="1">
         <v>10</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G40" s="15">
         <v>0.3</v>
       </c>
       <c r="H40" s="1" t="s">
@@ -4870,7 +4871,7 @@
       <c r="F41" s="1">
         <v>14</v>
       </c>
-      <c r="G41" s="16">
+      <c r="G41" s="15">
         <v>0.4</v>
       </c>
       <c r="H41" s="1">
@@ -4932,7 +4933,7 @@
       <c r="AD41" s="1">
         <v>0</v>
       </c>
-      <c r="AE41" s="24" t="s">
+      <c r="AE41" s="23" t="s">
         <v>41</v>
       </c>
       <c r="AF41" s="1">
@@ -4976,7 +4977,7 @@
       <c r="F42" s="1">
         <v>15</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G42" s="15">
         <v>0.3</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -5038,7 +5039,7 @@
       <c r="AD42" s="1">
         <v>0</v>
       </c>
-      <c r="AE42" s="24" t="s">
+      <c r="AE42" s="23" t="s">
         <v>41</v>
       </c>
       <c r="AF42" s="1">
@@ -5082,7 +5083,7 @@
       <c r="F43" s="1">
         <v>10</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G43" s="15">
         <v>0.3</v>
       </c>
       <c r="H43" s="1" t="s">
@@ -5144,7 +5145,7 @@
       <c r="AD43" s="1">
         <v>0</v>
       </c>
-      <c r="AE43" s="26" t="s">
+      <c r="AE43" s="25" t="s">
         <v>36</v>
       </c>
       <c r="AF43" s="1">
@@ -5178,7 +5179,7 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
-      <c r="G44" s="16"/>
+      <c r="G44" s="15"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -5231,7 +5232,7 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
-      <c r="G45" s="16"/>
+      <c r="G45" s="15"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
@@ -5284,7 +5285,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
-      <c r="G46" s="16"/>
+      <c r="G46" s="15"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -5337,7 +5338,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
-      <c r="G47" s="16"/>
+      <c r="G47" s="15"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -5390,7 +5391,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
-      <c r="G48" s="16"/>
+      <c r="G48" s="15"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -5443,7 +5444,7 @@
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
-      <c r="G49" s="16"/>
+      <c r="G49" s="15"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -5496,7 +5497,7 @@
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
-      <c r="G50" s="16"/>
+      <c r="G50" s="15"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
@@ -5549,7 +5550,7 @@
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
-      <c r="G51" s="16"/>
+      <c r="G51" s="15"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
@@ -5602,7 +5603,7 @@
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
-      <c r="G52" s="16"/>
+      <c r="G52" s="15"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
@@ -5655,7 +5656,7 @@
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
-      <c r="G53" s="16"/>
+      <c r="G53" s="15"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
@@ -5708,7 +5709,7 @@
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
-      <c r="G54" s="16"/>
+      <c r="G54" s="15"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
@@ -5761,7 +5762,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
-      <c r="G55" s="16"/>
+      <c r="G55" s="15"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="1"/>
@@ -5814,7 +5815,7 @@
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="16"/>
+      <c r="G56" s="15"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
@@ -5867,7 +5868,7 @@
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="16"/>
+      <c r="G57" s="15"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
@@ -5920,7 +5921,7 @@
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="16"/>
+      <c r="G58" s="15"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -5973,7 +5974,7 @@
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
-      <c r="G59" s="16"/>
+      <c r="G59" s="15"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
@@ -6026,7 +6027,7 @@
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
-      <c r="G60" s="16"/>
+      <c r="G60" s="15"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
@@ -6079,7 +6080,7 @@
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
-      <c r="G61" s="16"/>
+      <c r="G61" s="15"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="1"/>
@@ -6132,7 +6133,7 @@
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
-      <c r="G62" s="16"/>
+      <c r="G62" s="15"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -6185,7 +6186,7 @@
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
-      <c r="G63" s="16"/>
+      <c r="G63" s="15"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
       <c r="J63" s="1"/>
@@ -6238,7 +6239,7 @@
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
-      <c r="G64" s="16"/>
+      <c r="G64" s="15"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
       <c r="J64" s="1"/>
@@ -6291,7 +6292,7 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
-      <c r="G65" s="16"/>
+      <c r="G65" s="15"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
@@ -6344,7 +6345,7 @@
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
-      <c r="G66" s="16"/>
+      <c r="G66" s="15"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
       <c r="J66" s="1"/>
@@ -6397,7 +6398,7 @@
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
-      <c r="G67" s="16"/>
+      <c r="G67" s="15"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
       <c r="J67" s="1"/>
@@ -6450,7 +6451,7 @@
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
-      <c r="G68" s="16"/>
+      <c r="G68" s="15"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
@@ -6503,7 +6504,7 @@
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
-      <c r="G69" s="16"/>
+      <c r="G69" s="15"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -6556,7 +6557,7 @@
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
-      <c r="G70" s="16"/>
+      <c r="G70" s="15"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="1"/>
@@ -6609,7 +6610,7 @@
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
-      <c r="G71" s="16"/>
+      <c r="G71" s="15"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
@@ -6662,7 +6663,7 @@
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
-      <c r="G72" s="16"/>
+      <c r="G72" s="15"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
       <c r="J72" s="1"/>
@@ -6715,7 +6716,7 @@
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
-      <c r="G73" s="16"/>
+      <c r="G73" s="15"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -6768,7 +6769,7 @@
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
-      <c r="G74" s="16"/>
+      <c r="G74" s="15"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
       <c r="J74" s="1"/>
@@ -6821,7 +6822,7 @@
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
-      <c r="G75" s="16"/>
+      <c r="G75" s="15"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
       <c r="J75" s="1"/>
@@ -6874,7 +6875,7 @@
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
-      <c r="G76" s="16"/>
+      <c r="G76" s="15"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
@@ -6927,7 +6928,7 @@
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
-      <c r="G77" s="16"/>
+      <c r="G77" s="15"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -6980,7 +6981,7 @@
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
-      <c r="G78" s="16"/>
+      <c r="G78" s="15"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
@@ -7033,7 +7034,7 @@
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
-      <c r="G79" s="16"/>
+      <c r="G79" s="15"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
@@ -7086,7 +7087,7 @@
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
-      <c r="G80" s="16"/>
+      <c r="G80" s="15"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
@@ -7139,7 +7140,7 @@
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
-      <c r="G81" s="16"/>
+      <c r="G81" s="15"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
@@ -7192,7 +7193,7 @@
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
-      <c r="G82" s="16"/>
+      <c r="G82" s="15"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
@@ -7245,7 +7246,7 @@
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
-      <c r="G83" s="16"/>
+      <c r="G83" s="15"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
@@ -7298,7 +7299,7 @@
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
-      <c r="G84" s="16"/>
+      <c r="G84" s="15"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
@@ -7351,7 +7352,7 @@
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
-      <c r="G85" s="16"/>
+      <c r="G85" s="15"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
@@ -7404,7 +7405,7 @@
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
-      <c r="G86" s="16"/>
+      <c r="G86" s="15"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
@@ -7457,7 +7458,7 @@
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
-      <c r="G87" s="16"/>
+      <c r="G87" s="15"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
@@ -7510,7 +7511,7 @@
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
-      <c r="G88" s="16"/>
+      <c r="G88" s="15"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
@@ -7563,7 +7564,7 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
-      <c r="G89" s="16"/>
+      <c r="G89" s="15"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -7616,7 +7617,7 @@
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
-      <c r="G90" s="16"/>
+      <c r="G90" s="15"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
@@ -7669,7 +7670,7 @@
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
-      <c r="G91" s="16"/>
+      <c r="G91" s="15"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
@@ -7722,7 +7723,7 @@
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
-      <c r="G92" s="16"/>
+      <c r="G92" s="15"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -7775,7 +7776,7 @@
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
-      <c r="G93" s="16"/>
+      <c r="G93" s="15"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
@@ -7828,7 +7829,7 @@
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
-      <c r="G94" s="16"/>
+      <c r="G94" s="15"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
@@ -7881,7 +7882,7 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
-      <c r="G95" s="16"/>
+      <c r="G95" s="15"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -7934,7 +7935,7 @@
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
-      <c r="G96" s="16"/>
+      <c r="G96" s="15"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
@@ -7987,7 +7988,7 @@
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
-      <c r="G97" s="16"/>
+      <c r="G97" s="15"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
@@ -8040,7 +8041,7 @@
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
-      <c r="G98" s="16"/>
+      <c r="G98" s="15"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -8093,7 +8094,7 @@
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
-      <c r="G99" s="16"/>
+      <c r="G99" s="15"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
@@ -8146,7 +8147,7 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
-      <c r="G100" s="16"/>
+      <c r="G100" s="15"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
@@ -8199,7 +8200,7 @@
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
-      <c r="G101" s="16"/>
+      <c r="G101" s="15"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -8252,7 +8253,7 @@
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
-      <c r="G102" s="16"/>
+      <c r="G102" s="15"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
@@ -8305,7 +8306,7 @@
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
-      <c r="G103" s="16"/>
+      <c r="G103" s="15"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
@@ -8358,7 +8359,7 @@
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
-      <c r="G104" s="16"/>
+      <c r="G104" s="15"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
@@ -8411,7 +8412,7 @@
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
-      <c r="G105" s="16"/>
+      <c r="G105" s="15"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
@@ -8464,7 +8465,7 @@
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
-      <c r="G106" s="16"/>
+      <c r="G106" s="15"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
@@ -8517,7 +8518,7 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
-      <c r="G107" s="16"/>
+      <c r="G107" s="15"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
@@ -8570,7 +8571,7 @@
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
-      <c r="G108" s="16"/>
+      <c r="G108" s="15"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
@@ -8623,7 +8624,7 @@
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
-      <c r="G109" s="16"/>
+      <c r="G109" s="15"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
@@ -8676,7 +8677,7 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
-      <c r="G110" s="16"/>
+      <c r="G110" s="15"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
@@ -8729,7 +8730,7 @@
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
-      <c r="G111" s="16"/>
+      <c r="G111" s="15"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
@@ -8782,7 +8783,7 @@
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
-      <c r="G112" s="16"/>
+      <c r="G112" s="15"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
       <c r="J112" s="1"/>
@@ -8835,7 +8836,7 @@
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1"/>
-      <c r="G113" s="16"/>
+      <c r="G113" s="15"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
       <c r="J113" s="1"/>
@@ -8888,7 +8889,7 @@
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
-      <c r="G114" s="16"/>
+      <c r="G114" s="15"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
       <c r="J114" s="1"/>
@@ -8941,7 +8942,7 @@
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1"/>
-      <c r="G115" s="16"/>
+      <c r="G115" s="15"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
       <c r="J115" s="1"/>
@@ -8994,7 +8995,7 @@
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
-      <c r="G116" s="16"/>
+      <c r="G116" s="15"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
       <c r="J116" s="1"/>
@@ -9047,7 +9048,7 @@
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
-      <c r="G117" s="16"/>
+      <c r="G117" s="15"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
@@ -9100,7 +9101,7 @@
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
-      <c r="G118" s="16"/>
+      <c r="G118" s="15"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
       <c r="J118" s="1"/>
@@ -9153,7 +9154,7 @@
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
-      <c r="G119" s="16"/>
+      <c r="G119" s="15"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
@@ -9206,7 +9207,7 @@
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
-      <c r="G120" s="16"/>
+      <c r="G120" s="15"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
       <c r="J120" s="1"/>
@@ -9259,7 +9260,7 @@
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
-      <c r="G121" s="16"/>
+      <c r="G121" s="15"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
       <c r="J121" s="1"/>
@@ -9312,7 +9313,7 @@
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
-      <c r="G122" s="16"/>
+      <c r="G122" s="15"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
       <c r="J122" s="1"/>
@@ -9365,7 +9366,7 @@
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
-      <c r="G123" s="16"/>
+      <c r="G123" s="15"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
       <c r="J123" s="1"/>
@@ -9418,7 +9419,7 @@
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
-      <c r="G124" s="16"/>
+      <c r="G124" s="15"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
       <c r="J124" s="1"/>
@@ -9471,7 +9472,7 @@
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
-      <c r="G125" s="16"/>
+      <c r="G125" s="15"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
@@ -9524,7 +9525,7 @@
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
-      <c r="G126" s="16"/>
+      <c r="G126" s="15"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
       <c r="J126" s="1"/>
@@ -9577,7 +9578,7 @@
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
-      <c r="G127" s="16"/>
+      <c r="G127" s="15"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
       <c r="J127" s="1"/>
@@ -9630,7 +9631,7 @@
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
-      <c r="G128" s="16"/>
+      <c r="G128" s="15"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
       <c r="J128" s="1"/>
@@ -9683,7 +9684,7 @@
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
-      <c r="G129" s="16"/>
+      <c r="G129" s="15"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
       <c r="J129" s="1"/>
@@ -9736,7 +9737,7 @@
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
-      <c r="G130" s="16"/>
+      <c r="G130" s="15"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
       <c r="J130" s="1"/>
@@ -9789,7 +9790,7 @@
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
-      <c r="G131" s="16"/>
+      <c r="G131" s="15"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
       <c r="J131" s="1"/>
@@ -9842,7 +9843,7 @@
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
-      <c r="G132" s="16"/>
+      <c r="G132" s="15"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
       <c r="J132" s="1"/>
@@ -9895,7 +9896,7 @@
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
-      <c r="G133" s="16"/>
+      <c r="G133" s="15"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
       <c r="J133" s="1"/>
@@ -9948,7 +9949,7 @@
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
-      <c r="G134" s="16"/>
+      <c r="G134" s="15"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
       <c r="J134" s="1"/>
@@ -10001,7 +10002,7 @@
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
-      <c r="G135" s="16"/>
+      <c r="G135" s="15"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
@@ -10054,7 +10055,7 @@
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
-      <c r="G136" s="16"/>
+      <c r="G136" s="15"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
@@ -10107,7 +10108,7 @@
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
-      <c r="G137" s="16"/>
+      <c r="G137" s="15"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
       <c r="J137" s="1"/>
@@ -10160,7 +10161,7 @@
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
-      <c r="G138" s="16"/>
+      <c r="G138" s="15"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
       <c r="J138" s="1"/>
@@ -10213,7 +10214,7 @@
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
-      <c r="G139" s="16"/>
+      <c r="G139" s="15"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
       <c r="J139" s="1"/>
@@ -10266,7 +10267,7 @@
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
-      <c r="G140" s="16"/>
+      <c r="G140" s="15"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
       <c r="J140" s="1"/>
@@ -10319,7 +10320,7 @@
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
-      <c r="G141" s="16"/>
+      <c r="G141" s="15"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
       <c r="J141" s="1"/>
@@ -10372,7 +10373,7 @@
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
-      <c r="G142" s="16"/>
+      <c r="G142" s="15"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
       <c r="J142" s="1"/>
@@ -10425,7 +10426,7 @@
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
-      <c r="G143" s="16"/>
+      <c r="G143" s="15"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
       <c r="J143" s="1"/>
@@ -10478,7 +10479,7 @@
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
-      <c r="G144" s="16"/>
+      <c r="G144" s="15"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
       <c r="J144" s="1"/>
@@ -10531,7 +10532,7 @@
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
-      <c r="G145" s="16"/>
+      <c r="G145" s="15"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
       <c r="J145" s="1"/>
@@ -10584,7 +10585,7 @@
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
-      <c r="G146" s="16"/>
+      <c r="G146" s="15"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
       <c r="J146" s="1"/>
@@ -10637,7 +10638,7 @@
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
-      <c r="G147" s="16"/>
+      <c r="G147" s="15"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
       <c r="J147" s="1"/>
@@ -10690,7 +10691,7 @@
       <c r="D148" s="1"/>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
-      <c r="G148" s="16"/>
+      <c r="G148" s="15"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
       <c r="J148" s="1"/>
@@ -10743,7 +10744,7 @@
       <c r="D149" s="1"/>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
-      <c r="G149" s="16"/>
+      <c r="G149" s="15"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
       <c r="J149" s="1"/>
@@ -10796,7 +10797,7 @@
       <c r="D150" s="1"/>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
-      <c r="G150" s="16"/>
+      <c r="G150" s="15"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
       <c r="J150" s="1"/>
@@ -10849,7 +10850,7 @@
       <c r="D151" s="1"/>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
-      <c r="G151" s="16"/>
+      <c r="G151" s="15"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
       <c r="J151" s="1"/>
@@ -10902,7 +10903,7 @@
       <c r="D152" s="1"/>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
-      <c r="G152" s="16"/>
+      <c r="G152" s="15"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
       <c r="J152" s="1"/>
@@ -10955,7 +10956,7 @@
       <c r="D153" s="1"/>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
-      <c r="G153" s="16"/>
+      <c r="G153" s="15"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
       <c r="J153" s="1"/>
@@ -11008,7 +11009,7 @@
       <c r="D154" s="1"/>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
-      <c r="G154" s="16"/>
+      <c r="G154" s="15"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
       <c r="J154" s="1"/>
@@ -11061,7 +11062,7 @@
       <c r="D155" s="1"/>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
-      <c r="G155" s="16"/>
+      <c r="G155" s="15"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
       <c r="J155" s="1"/>
@@ -11114,7 +11115,7 @@
       <c r="D156" s="1"/>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
-      <c r="G156" s="16"/>
+      <c r="G156" s="15"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
       <c r="J156" s="1"/>
@@ -11167,7 +11168,7 @@
       <c r="D157" s="1"/>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
-      <c r="G157" s="16"/>
+      <c r="G157" s="15"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
       <c r="J157" s="1"/>
@@ -11220,7 +11221,7 @@
       <c r="D158" s="1"/>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
-      <c r="G158" s="16"/>
+      <c r="G158" s="15"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
       <c r="J158" s="1"/>
@@ -11273,7 +11274,7 @@
       <c r="D159" s="1"/>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
-      <c r="G159" s="16"/>
+      <c r="G159" s="15"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
       <c r="J159" s="1"/>
@@ -11326,7 +11327,7 @@
       <c r="D160" s="1"/>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
-      <c r="G160" s="16"/>
+      <c r="G160" s="15"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
       <c r="J160" s="1"/>
@@ -11379,7 +11380,7 @@
       <c r="D161" s="1"/>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
-      <c r="G161" s="16"/>
+      <c r="G161" s="15"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
       <c r="J161" s="1"/>
@@ -11432,7 +11433,7 @@
       <c r="D162" s="1"/>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
-      <c r="G162" s="16"/>
+      <c r="G162" s="15"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
       <c r="J162" s="1"/>
@@ -11485,7 +11486,7 @@
       <c r="D163" s="1"/>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
-      <c r="G163" s="16"/>
+      <c r="G163" s="15"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
       <c r="J163" s="1"/>
@@ -11538,7 +11539,7 @@
       <c r="D164" s="1"/>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
-      <c r="G164" s="16"/>
+      <c r="G164" s="15"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
       <c r="J164" s="1"/>
@@ -11591,7 +11592,7 @@
       <c r="D165" s="1"/>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
-      <c r="G165" s="16"/>
+      <c r="G165" s="15"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
       <c r="J165" s="1"/>
@@ -11644,7 +11645,7 @@
       <c r="D166" s="1"/>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
-      <c r="G166" s="16"/>
+      <c r="G166" s="15"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
       <c r="J166" s="1"/>
@@ -11697,7 +11698,7 @@
       <c r="D167" s="1"/>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
-      <c r="G167" s="16"/>
+      <c r="G167" s="15"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
       <c r="J167" s="1"/>
@@ -11750,7 +11751,7 @@
       <c r="D168" s="1"/>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
-      <c r="G168" s="16"/>
+      <c r="G168" s="15"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
       <c r="J168" s="1"/>
@@ -11803,7 +11804,7 @@
       <c r="D169" s="1"/>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
-      <c r="G169" s="16"/>
+      <c r="G169" s="15"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
       <c r="J169" s="1"/>
@@ -11856,7 +11857,7 @@
       <c r="D170" s="1"/>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
-      <c r="G170" s="16"/>
+      <c r="G170" s="15"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
       <c r="J170" s="1"/>
@@ -11909,7 +11910,7 @@
       <c r="D171" s="1"/>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
-      <c r="G171" s="16"/>
+      <c r="G171" s="15"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
       <c r="J171" s="1"/>
@@ -11962,7 +11963,7 @@
       <c r="D172" s="1"/>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
-      <c r="G172" s="16"/>
+      <c r="G172" s="15"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
       <c r="J172" s="1"/>
@@ -12015,7 +12016,7 @@
       <c r="D173" s="1"/>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
-      <c r="G173" s="16"/>
+      <c r="G173" s="15"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
       <c r="J173" s="1"/>
@@ -12068,7 +12069,7 @@
       <c r="D174" s="1"/>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
-      <c r="G174" s="16"/>
+      <c r="G174" s="15"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
       <c r="J174" s="1"/>
@@ -12121,7 +12122,7 @@
       <c r="D175" s="1"/>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
-      <c r="G175" s="16"/>
+      <c r="G175" s="15"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
       <c r="J175" s="1"/>
@@ -12174,7 +12175,7 @@
       <c r="D176" s="1"/>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
-      <c r="G176" s="16"/>
+      <c r="G176" s="15"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
       <c r="J176" s="1"/>
@@ -12227,7 +12228,7 @@
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
-      <c r="G177" s="16"/>
+      <c r="G177" s="15"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
       <c r="J177" s="1"/>
@@ -12280,7 +12281,7 @@
       <c r="D178" s="1"/>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
-      <c r="G178" s="16"/>
+      <c r="G178" s="15"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
       <c r="J178" s="1"/>
@@ -12333,7 +12334,7 @@
       <c r="D179" s="1"/>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
-      <c r="G179" s="16"/>
+      <c r="G179" s="15"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
       <c r="J179" s="1"/>
@@ -12386,7 +12387,7 @@
       <c r="D180" s="1"/>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
-      <c r="G180" s="16"/>
+      <c r="G180" s="15"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
       <c r="J180" s="1"/>
@@ -12439,7 +12440,7 @@
       <c r="D181" s="1"/>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
-      <c r="G181" s="16"/>
+      <c r="G181" s="15"/>
       <c r="H181" s="1"/>
       <c r="I181" s="1"/>
       <c r="J181" s="1"/>
@@ -12492,7 +12493,7 @@
       <c r="D182" s="1"/>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
-      <c r="G182" s="16"/>
+      <c r="G182" s="15"/>
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
       <c r="J182" s="1"/>
@@ -12545,7 +12546,7 @@
       <c r="D183" s="1"/>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
-      <c r="G183" s="16"/>
+      <c r="G183" s="15"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
       <c r="J183" s="1"/>
@@ -12598,7 +12599,7 @@
       <c r="D184" s="1"/>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
-      <c r="G184" s="16"/>
+      <c r="G184" s="15"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="J184" s="1"/>
@@ -12651,7 +12652,7 @@
       <c r="D185" s="1"/>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
-      <c r="G185" s="16"/>
+      <c r="G185" s="15"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
       <c r="J185" s="1"/>
@@ -12704,7 +12705,7 @@
       <c r="D186" s="1"/>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
-      <c r="G186" s="16"/>
+      <c r="G186" s="15"/>
       <c r="H186" s="1"/>
       <c r="I186" s="1"/>
       <c r="J186" s="1"/>
@@ -12757,7 +12758,7 @@
       <c r="D187" s="1"/>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
-      <c r="G187" s="16"/>
+      <c r="G187" s="15"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
       <c r="J187" s="1"/>
@@ -12810,7 +12811,7 @@
       <c r="D188" s="1"/>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
-      <c r="G188" s="16"/>
+      <c r="G188" s="15"/>
       <c r="H188" s="1"/>
       <c r="I188" s="1"/>
       <c r="J188" s="1"/>
@@ -12863,7 +12864,7 @@
       <c r="D189" s="1"/>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
-      <c r="G189" s="16"/>
+      <c r="G189" s="15"/>
       <c r="H189" s="1"/>
       <c r="I189" s="1"/>
       <c r="J189" s="1"/>
@@ -12916,7 +12917,7 @@
       <c r="D190" s="1"/>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
-      <c r="G190" s="16"/>
+      <c r="G190" s="15"/>
       <c r="H190" s="1"/>
       <c r="I190" s="1"/>
       <c r="J190" s="1"/>
@@ -12969,7 +12970,7 @@
       <c r="D191" s="1"/>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
-      <c r="G191" s="16"/>
+      <c r="G191" s="15"/>
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
       <c r="J191" s="1"/>
@@ -13022,7 +13023,7 @@
       <c r="D192" s="1"/>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
-      <c r="G192" s="16"/>
+      <c r="G192" s="15"/>
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
       <c r="J192" s="1"/>
@@ -13075,7 +13076,7 @@
       <c r="D193" s="1"/>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
-      <c r="G193" s="16"/>
+      <c r="G193" s="15"/>
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
       <c r="J193" s="1"/>
@@ -13128,7 +13129,7 @@
       <c r="D194" s="1"/>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
-      <c r="G194" s="16"/>
+      <c r="G194" s="15"/>
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
       <c r="J194" s="1"/>
@@ -13181,7 +13182,7 @@
       <c r="D195" s="1"/>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
-      <c r="G195" s="16"/>
+      <c r="G195" s="15"/>
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
       <c r="J195" s="1"/>
@@ -13234,7 +13235,7 @@
       <c r="D196" s="1"/>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
-      <c r="G196" s="16"/>
+      <c r="G196" s="15"/>
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
       <c r="J196" s="1"/>
@@ -13287,7 +13288,7 @@
       <c r="D197" s="1"/>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
-      <c r="G197" s="16"/>
+      <c r="G197" s="15"/>
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
       <c r="J197" s="1"/>
@@ -13340,7 +13341,7 @@
       <c r="D198" s="1"/>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
-      <c r="G198" s="16"/>
+      <c r="G198" s="15"/>
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
       <c r="J198" s="1"/>
@@ -13393,7 +13394,7 @@
       <c r="D199" s="1"/>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
-      <c r="G199" s="16"/>
+      <c r="G199" s="15"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
       <c r="J199" s="1"/>
@@ -13446,7 +13447,7 @@
       <c r="D200" s="1"/>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
-      <c r="G200" s="16"/>
+      <c r="G200" s="15"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
       <c r="J200" s="1"/>
@@ -13499,7 +13500,7 @@
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
-      <c r="G201" s="16"/>
+      <c r="G201" s="15"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
       <c r="J201" s="1"/>
@@ -13552,7 +13553,7 @@
       <c r="D202" s="1"/>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
-      <c r="G202" s="16"/>
+      <c r="G202" s="15"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
       <c r="J202" s="1"/>
@@ -13605,7 +13606,7 @@
       <c r="D203" s="1"/>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
-      <c r="G203" s="16"/>
+      <c r="G203" s="15"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
       <c r="J203" s="1"/>
@@ -13658,7 +13659,7 @@
       <c r="D204" s="1"/>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
-      <c r="G204" s="16"/>
+      <c r="G204" s="15"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
       <c r="J204" s="1"/>
@@ -13711,7 +13712,7 @@
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
-      <c r="G205" s="16"/>
+      <c r="G205" s="15"/>
       <c r="H205" s="1"/>
       <c r="I205" s="1"/>
       <c r="J205" s="1"/>
@@ -13764,7 +13765,7 @@
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
-      <c r="G206" s="16"/>
+      <c r="G206" s="15"/>
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
       <c r="J206" s="1"/>
@@ -13817,7 +13818,7 @@
       <c r="D207" s="1"/>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
-      <c r="G207" s="16"/>
+      <c r="G207" s="15"/>
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
       <c r="J207" s="1"/>
@@ -13870,7 +13871,7 @@
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
-      <c r="G208" s="16"/>
+      <c r="G208" s="15"/>
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
       <c r="J208" s="1"/>
@@ -13923,7 +13924,7 @@
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
-      <c r="G209" s="16"/>
+      <c r="G209" s="15"/>
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
       <c r="J209" s="1"/>
@@ -13976,7 +13977,7 @@
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
-      <c r="G210" s="16"/>
+      <c r="G210" s="15"/>
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210" s="1"/>
@@ -14029,7 +14030,7 @@
       <c r="D211" s="1"/>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
-      <c r="G211" s="16"/>
+      <c r="G211" s="15"/>
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
       <c r="J211" s="1"/>
@@ -14082,7 +14083,7 @@
       <c r="D212" s="1"/>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
-      <c r="G212" s="16"/>
+      <c r="G212" s="15"/>
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
       <c r="J212" s="1"/>
@@ -14135,7 +14136,7 @@
       <c r="D213" s="1"/>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
-      <c r="G213" s="16"/>
+      <c r="G213" s="15"/>
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
       <c r="J213" s="1"/>
@@ -14188,7 +14189,7 @@
       <c r="D214" s="1"/>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
-      <c r="G214" s="16"/>
+      <c r="G214" s="15"/>
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
       <c r="J214" s="1"/>
@@ -14241,7 +14242,7 @@
       <c r="D215" s="1"/>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
-      <c r="G215" s="16"/>
+      <c r="G215" s="15"/>
       <c r="H215" s="1"/>
       <c r="I215" s="1"/>
       <c r="J215" s="1"/>
@@ -14294,7 +14295,7 @@
       <c r="D216" s="1"/>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
-      <c r="G216" s="16"/>
+      <c r="G216" s="15"/>
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
       <c r="J216" s="1"/>
@@ -14347,7 +14348,7 @@
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
-      <c r="G217" s="16"/>
+      <c r="G217" s="15"/>
       <c r="H217" s="1"/>
       <c r="I217" s="1"/>
       <c r="J217" s="1"/>
@@ -14400,7 +14401,7 @@
       <c r="D218" s="1"/>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
-      <c r="G218" s="16"/>
+      <c r="G218" s="15"/>
       <c r="H218" s="1"/>
       <c r="I218" s="1"/>
       <c r="J218" s="1"/>
@@ -14453,7 +14454,7 @@
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
-      <c r="G219" s="16"/>
+      <c r="G219" s="15"/>
       <c r="H219" s="1"/>
       <c r="I219" s="1"/>
       <c r="J219" s="1"/>
@@ -14506,7 +14507,7 @@
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
-      <c r="G220" s="16"/>
+      <c r="G220" s="15"/>
       <c r="H220" s="1"/>
       <c r="I220" s="1"/>
       <c r="J220" s="1"/>
@@ -14559,7 +14560,7 @@
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
-      <c r="G221" s="16"/>
+      <c r="G221" s="15"/>
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
       <c r="J221" s="1"/>
@@ -14612,7 +14613,7 @@
       <c r="D222" s="1"/>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
-      <c r="G222" s="16"/>
+      <c r="G222" s="15"/>
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
       <c r="J222" s="1"/>
@@ -14665,7 +14666,7 @@
       <c r="D223" s="1"/>
       <c r="E223" s="1"/>
       <c r="F223" s="1"/>
-      <c r="G223" s="16"/>
+      <c r="G223" s="15"/>
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
       <c r="J223" s="1"/>
@@ -14718,7 +14719,7 @@
       <c r="D224" s="1"/>
       <c r="E224" s="1"/>
       <c r="F224" s="1"/>
-      <c r="G224" s="16"/>
+      <c r="G224" s="15"/>
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
       <c r="J224" s="1"/>
@@ -14771,7 +14772,7 @@
       <c r="D225" s="1"/>
       <c r="E225" s="1"/>
       <c r="F225" s="1"/>
-      <c r="G225" s="16"/>
+      <c r="G225" s="15"/>
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
       <c r="J225" s="1"/>
@@ -14824,7 +14825,7 @@
       <c r="D226" s="1"/>
       <c r="E226" s="1"/>
       <c r="F226" s="1"/>
-      <c r="G226" s="16"/>
+      <c r="G226" s="15"/>
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
       <c r="J226" s="1"/>
@@ -14877,7 +14878,7 @@
       <c r="D227" s="1"/>
       <c r="E227" s="1"/>
       <c r="F227" s="1"/>
-      <c r="G227" s="16"/>
+      <c r="G227" s="15"/>
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
       <c r="J227" s="1"/>
@@ -14930,7 +14931,7 @@
       <c r="D228" s="1"/>
       <c r="E228" s="1"/>
       <c r="F228" s="1"/>
-      <c r="G228" s="16"/>
+      <c r="G228" s="15"/>
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
       <c r="J228" s="1"/>
@@ -14983,7 +14984,7 @@
       <c r="D229" s="1"/>
       <c r="E229" s="1"/>
       <c r="F229" s="1"/>
-      <c r="G229" s="16"/>
+      <c r="G229" s="15"/>
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
       <c r="J229" s="1"/>
@@ -15036,7 +15037,7 @@
       <c r="D230" s="1"/>
       <c r="E230" s="1"/>
       <c r="F230" s="1"/>
-      <c r="G230" s="16"/>
+      <c r="G230" s="15"/>
       <c r="H230" s="1"/>
       <c r="I230" s="1"/>
       <c r="J230" s="1"/>
@@ -15089,7 +15090,7 @@
       <c r="D231" s="1"/>
       <c r="E231" s="1"/>
       <c r="F231" s="1"/>
-      <c r="G231" s="16"/>
+      <c r="G231" s="15"/>
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
       <c r="J231" s="1"/>
@@ -15142,7 +15143,7 @@
       <c r="D232" s="1"/>
       <c r="E232" s="1"/>
       <c r="F232" s="1"/>
-      <c r="G232" s="16"/>
+      <c r="G232" s="15"/>
       <c r="H232" s="1"/>
       <c r="I232" s="1"/>
       <c r="J232" s="1"/>
@@ -15195,7 +15196,7 @@
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1"/>
-      <c r="G233" s="16"/>
+      <c r="G233" s="15"/>
       <c r="H233" s="1"/>
       <c r="I233" s="1"/>
       <c r="J233" s="1"/>
@@ -15248,7 +15249,7 @@
       <c r="D234" s="1"/>
       <c r="E234" s="1"/>
       <c r="F234" s="1"/>
-      <c r="G234" s="16"/>
+      <c r="G234" s="15"/>
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
       <c r="J234" s="1"/>
@@ -15301,7 +15302,7 @@
       <c r="D235" s="1"/>
       <c r="E235" s="1"/>
       <c r="F235" s="1"/>
-      <c r="G235" s="16"/>
+      <c r="G235" s="15"/>
       <c r="H235" s="1"/>
       <c r="I235" s="1"/>
       <c r="J235" s="1"/>
@@ -15354,7 +15355,7 @@
       <c r="D236" s="1"/>
       <c r="E236" s="1"/>
       <c r="F236" s="1"/>
-      <c r="G236" s="16"/>
+      <c r="G236" s="15"/>
       <c r="H236" s="1"/>
       <c r="I236" s="1"/>
       <c r="J236" s="1"/>
@@ -15407,7 +15408,7 @@
       <c r="D237" s="1"/>
       <c r="E237" s="1"/>
       <c r="F237" s="1"/>
-      <c r="G237" s="16"/>
+      <c r="G237" s="15"/>
       <c r="H237" s="1"/>
       <c r="I237" s="1"/>
       <c r="J237" s="1"/>
@@ -15460,7 +15461,7 @@
       <c r="D238" s="1"/>
       <c r="E238" s="1"/>
       <c r="F238" s="1"/>
-      <c r="G238" s="16"/>
+      <c r="G238" s="15"/>
       <c r="H238" s="1"/>
       <c r="I238" s="1"/>
       <c r="J238" s="1"/>
@@ -15513,7 +15514,7 @@
       <c r="D239" s="1"/>
       <c r="E239" s="1"/>
       <c r="F239" s="1"/>
-      <c r="G239" s="16"/>
+      <c r="G239" s="15"/>
       <c r="H239" s="1"/>
       <c r="I239" s="1"/>
       <c r="J239" s="1"/>
@@ -15566,7 +15567,7 @@
       <c r="D240" s="1"/>
       <c r="E240" s="1"/>
       <c r="F240" s="1"/>
-      <c r="G240" s="16"/>
+      <c r="G240" s="15"/>
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
       <c r="J240" s="1"/>
@@ -15619,7 +15620,7 @@
       <c r="D241" s="1"/>
       <c r="E241" s="1"/>
       <c r="F241" s="1"/>
-      <c r="G241" s="16"/>
+      <c r="G241" s="15"/>
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
       <c r="J241" s="1"/>
@@ -15672,7 +15673,7 @@
       <c r="D242" s="1"/>
       <c r="E242" s="1"/>
       <c r="F242" s="1"/>
-      <c r="G242" s="16"/>
+      <c r="G242" s="15"/>
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
       <c r="J242" s="1"/>
@@ -15725,7 +15726,7 @@
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
       <c r="F243" s="1"/>
-      <c r="G243" s="16"/>
+      <c r="G243" s="15"/>
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
       <c r="J243" s="1"/>
@@ -15778,7 +15779,7 @@
       <c r="D244" s="1"/>
       <c r="E244" s="1"/>
       <c r="F244" s="1"/>
-      <c r="G244" s="16"/>
+      <c r="G244" s="15"/>
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
       <c r="J244" s="1"/>
@@ -15831,7 +15832,7 @@
       <c r="D245" s="1"/>
       <c r="E245" s="1"/>
       <c r="F245" s="1"/>
-      <c r="G245" s="16"/>
+      <c r="G245" s="15"/>
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
       <c r="J245" s="1"/>
@@ -15884,7 +15885,7 @@
       <c r="D246" s="1"/>
       <c r="E246" s="1"/>
       <c r="F246" s="1"/>
-      <c r="G246" s="16"/>
+      <c r="G246" s="15"/>
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
       <c r="J246" s="1"/>
@@ -15937,7 +15938,7 @@
       <c r="D247" s="1"/>
       <c r="E247" s="1"/>
       <c r="F247" s="1"/>
-      <c r="G247" s="16"/>
+      <c r="G247" s="15"/>
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
       <c r="J247" s="1"/>
@@ -15990,7 +15991,7 @@
       <c r="D248" s="1"/>
       <c r="E248" s="1"/>
       <c r="F248" s="1"/>
-      <c r="G248" s="16"/>
+      <c r="G248" s="15"/>
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
       <c r="J248" s="1"/>
@@ -16043,7 +16044,7 @@
       <c r="D249" s="1"/>
       <c r="E249" s="1"/>
       <c r="F249" s="1"/>
-      <c r="G249" s="16"/>
+      <c r="G249" s="15"/>
       <c r="H249" s="1"/>
       <c r="I249" s="1"/>
       <c r="J249" s="1"/>
@@ -16096,7 +16097,7 @@
       <c r="D250" s="1"/>
       <c r="E250" s="1"/>
       <c r="F250" s="1"/>
-      <c r="G250" s="16"/>
+      <c r="G250" s="15"/>
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
       <c r="J250" s="1"/>
@@ -16149,7 +16150,7 @@
       <c r="D251" s="1"/>
       <c r="E251" s="1"/>
       <c r="F251" s="1"/>
-      <c r="G251" s="16"/>
+      <c r="G251" s="15"/>
       <c r="H251" s="1"/>
       <c r="I251" s="1"/>
       <c r="J251" s="1"/>
@@ -16202,7 +16203,7 @@
       <c r="D252" s="1"/>
       <c r="E252" s="1"/>
       <c r="F252" s="1"/>
-      <c r="G252" s="16"/>
+      <c r="G252" s="15"/>
       <c r="H252" s="1"/>
       <c r="I252" s="1"/>
       <c r="J252" s="1"/>
@@ -16255,7 +16256,7 @@
       <c r="D253" s="1"/>
       <c r="E253" s="1"/>
       <c r="F253" s="1"/>
-      <c r="G253" s="16"/>
+      <c r="G253" s="15"/>
       <c r="H253" s="1"/>
       <c r="I253" s="1"/>
       <c r="J253" s="1"/>
@@ -16308,7 +16309,7 @@
       <c r="D254" s="1"/>
       <c r="E254" s="1"/>
       <c r="F254" s="1"/>
-      <c r="G254" s="16"/>
+      <c r="G254" s="15"/>
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
       <c r="J254" s="1"/>
@@ -16361,7 +16362,7 @@
       <c r="D255" s="1"/>
       <c r="E255" s="1"/>
       <c r="F255" s="1"/>
-      <c r="G255" s="16"/>
+      <c r="G255" s="15"/>
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
       <c r="J255" s="1"/>
@@ -16414,7 +16415,7 @@
       <c r="D256" s="1"/>
       <c r="E256" s="1"/>
       <c r="F256" s="1"/>
-      <c r="G256" s="16"/>
+      <c r="G256" s="15"/>
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
       <c r="J256" s="1"/>
@@ -16467,7 +16468,7 @@
       <c r="D257" s="1"/>
       <c r="E257" s="1"/>
       <c r="F257" s="1"/>
-      <c r="G257" s="16"/>
+      <c r="G257" s="15"/>
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
       <c r="J257" s="1"/>
@@ -16520,7 +16521,7 @@
       <c r="D258" s="1"/>
       <c r="E258" s="1"/>
       <c r="F258" s="1"/>
-      <c r="G258" s="16"/>
+      <c r="G258" s="15"/>
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
       <c r="J258" s="1"/>
@@ -16573,7 +16574,7 @@
       <c r="D259" s="1"/>
       <c r="E259" s="1"/>
       <c r="F259" s="1"/>
-      <c r="G259" s="16"/>
+      <c r="G259" s="15"/>
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
       <c r="J259" s="1"/>
@@ -16626,7 +16627,7 @@
       <c r="D260" s="1"/>
       <c r="E260" s="1"/>
       <c r="F260" s="1"/>
-      <c r="G260" s="16"/>
+      <c r="G260" s="15"/>
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
       <c r="J260" s="1"/>
@@ -16679,7 +16680,7 @@
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1"/>
-      <c r="G261" s="16"/>
+      <c r="G261" s="15"/>
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
       <c r="J261" s="1"/>
@@ -16732,7 +16733,7 @@
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1"/>
-      <c r="G262" s="16"/>
+      <c r="G262" s="15"/>
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
       <c r="J262" s="1"/>
@@ -16785,7 +16786,7 @@
       <c r="D263" s="1"/>
       <c r="E263" s="1"/>
       <c r="F263" s="1"/>
-      <c r="G263" s="16"/>
+      <c r="G263" s="15"/>
       <c r="H263" s="1"/>
       <c r="I263" s="1"/>
       <c r="J263" s="1"/>
@@ -16838,7 +16839,7 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1"/>
-      <c r="G264" s="16"/>
+      <c r="G264" s="15"/>
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
       <c r="J264" s="1"/>
@@ -16891,7 +16892,7 @@
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1"/>
-      <c r="G265" s="16"/>
+      <c r="G265" s="15"/>
       <c r="H265" s="1"/>
       <c r="I265" s="1"/>
       <c r="J265" s="1"/>
@@ -16944,7 +16945,7 @@
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1"/>
-      <c r="G266" s="16"/>
+      <c r="G266" s="15"/>
       <c r="H266" s="1"/>
       <c r="I266" s="1"/>
       <c r="J266" s="1"/>
@@ -16997,7 +16998,7 @@
       <c r="D267" s="1"/>
       <c r="E267" s="1"/>
       <c r="F267" s="1"/>
-      <c r="G267" s="16"/>
+      <c r="G267" s="15"/>
       <c r="H267" s="1"/>
       <c r="I267" s="1"/>
       <c r="J267" s="1"/>
@@ -17050,7 +17051,7 @@
       <c r="D268" s="1"/>
       <c r="E268" s="1"/>
       <c r="F268" s="1"/>
-      <c r="G268" s="16"/>
+      <c r="G268" s="15"/>
       <c r="H268" s="1"/>
       <c r="I268" s="1"/>
       <c r="J268" s="1"/>
@@ -17103,7 +17104,7 @@
       <c r="D269" s="1"/>
       <c r="E269" s="1"/>
       <c r="F269" s="1"/>
-      <c r="G269" s="16"/>
+      <c r="G269" s="15"/>
       <c r="H269" s="1"/>
       <c r="I269" s="1"/>
       <c r="J269" s="1"/>
@@ -17156,7 +17157,7 @@
       <c r="D270" s="1"/>
       <c r="E270" s="1"/>
       <c r="F270" s="1"/>
-      <c r="G270" s="16"/>
+      <c r="G270" s="15"/>
       <c r="H270" s="1"/>
       <c r="I270" s="1"/>
       <c r="J270" s="1"/>
@@ -17209,7 +17210,7 @@
       <c r="D271" s="1"/>
       <c r="E271" s="1"/>
       <c r="F271" s="1"/>
-      <c r="G271" s="16"/>
+      <c r="G271" s="15"/>
       <c r="H271" s="1"/>
       <c r="I271" s="1"/>
       <c r="J271" s="1"/>
@@ -17262,7 +17263,7 @@
       <c r="D272" s="1"/>
       <c r="E272" s="1"/>
       <c r="F272" s="1"/>
-      <c r="G272" s="16"/>
+      <c r="G272" s="15"/>
       <c r="H272" s="1"/>
       <c r="I272" s="1"/>
       <c r="J272" s="1"/>
@@ -17315,7 +17316,7 @@
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1"/>
-      <c r="G273" s="16"/>
+      <c r="G273" s="15"/>
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
       <c r="J273" s="1"/>
@@ -17368,7 +17369,7 @@
       <c r="D274" s="1"/>
       <c r="E274" s="1"/>
       <c r="F274" s="1"/>
-      <c r="G274" s="16"/>
+      <c r="G274" s="15"/>
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
       <c r="J274" s="1"/>
@@ -17421,7 +17422,7 @@
       <c r="D275" s="1"/>
       <c r="E275" s="1"/>
       <c r="F275" s="1"/>
-      <c r="G275" s="16"/>
+      <c r="G275" s="15"/>
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
       <c r="J275" s="1"/>
@@ -17474,7 +17475,7 @@
       <c r="D276" s="1"/>
       <c r="E276" s="1"/>
       <c r="F276" s="1"/>
-      <c r="G276" s="16"/>
+      <c r="G276" s="15"/>
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
       <c r="J276" s="1"/>
@@ -17527,7 +17528,7 @@
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1"/>
-      <c r="G277" s="16"/>
+      <c r="G277" s="15"/>
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
       <c r="J277" s="1"/>
@@ -17580,7 +17581,7 @@
       <c r="D278" s="1"/>
       <c r="E278" s="1"/>
       <c r="F278" s="1"/>
-      <c r="G278" s="16"/>
+      <c r="G278" s="15"/>
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
       <c r="J278" s="1"/>
@@ -17633,7 +17634,7 @@
       <c r="D279" s="1"/>
       <c r="E279" s="1"/>
       <c r="F279" s="1"/>
-      <c r="G279" s="16"/>
+      <c r="G279" s="15"/>
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
       <c r="J279" s="1"/>
@@ -17686,7 +17687,7 @@
       <c r="D280" s="1"/>
       <c r="E280" s="1"/>
       <c r="F280" s="1"/>
-      <c r="G280" s="16"/>
+      <c r="G280" s="15"/>
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
       <c r="J280" s="1"/>
@@ -17739,7 +17740,7 @@
       <c r="D281" s="1"/>
       <c r="E281" s="1"/>
       <c r="F281" s="1"/>
-      <c r="G281" s="16"/>
+      <c r="G281" s="15"/>
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
       <c r="J281" s="1"/>
@@ -17792,7 +17793,7 @@
       <c r="D282" s="1"/>
       <c r="E282" s="1"/>
       <c r="F282" s="1"/>
-      <c r="G282" s="16"/>
+      <c r="G282" s="15"/>
       <c r="H282" s="1"/>
       <c r="I282" s="1"/>
       <c r="J282" s="1"/>
@@ -17845,7 +17846,7 @@
       <c r="D283" s="1"/>
       <c r="E283" s="1"/>
       <c r="F283" s="1"/>
-      <c r="G283" s="16"/>
+      <c r="G283" s="15"/>
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
       <c r="J283" s="1"/>
@@ -17898,7 +17899,7 @@
       <c r="D284" s="1"/>
       <c r="E284" s="1"/>
       <c r="F284" s="1"/>
-      <c r="G284" s="16"/>
+      <c r="G284" s="15"/>
       <c r="H284" s="1"/>
       <c r="I284" s="1"/>
       <c r="J284" s="1"/>
@@ -17951,7 +17952,7 @@
       <c r="D285" s="1"/>
       <c r="E285" s="1"/>
       <c r="F285" s="1"/>
-      <c r="G285" s="16"/>
+      <c r="G285" s="15"/>
       <c r="H285" s="1"/>
       <c r="I285" s="1"/>
       <c r="J285" s="1"/>
@@ -18004,7 +18005,7 @@
       <c r="D286" s="1"/>
       <c r="E286" s="1"/>
       <c r="F286" s="1"/>
-      <c r="G286" s="16"/>
+      <c r="G286" s="15"/>
       <c r="H286" s="1"/>
       <c r="I286" s="1"/>
       <c r="J286" s="1"/>
@@ -18057,7 +18058,7 @@
       <c r="D287" s="1"/>
       <c r="E287" s="1"/>
       <c r="F287" s="1"/>
-      <c r="G287" s="16"/>
+      <c r="G287" s="15"/>
       <c r="H287" s="1"/>
       <c r="I287" s="1"/>
       <c r="J287" s="1"/>
@@ -18110,7 +18111,7 @@
       <c r="D288" s="1"/>
       <c r="E288" s="1"/>
       <c r="F288" s="1"/>
-      <c r="G288" s="16"/>
+      <c r="G288" s="15"/>
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
       <c r="J288" s="1"/>
@@ -18163,7 +18164,7 @@
       <c r="D289" s="1"/>
       <c r="E289" s="1"/>
       <c r="F289" s="1"/>
-      <c r="G289" s="16"/>
+      <c r="G289" s="15"/>
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
       <c r="J289" s="1"/>
@@ -18216,7 +18217,7 @@
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1"/>
-      <c r="G290" s="16"/>
+      <c r="G290" s="15"/>
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
       <c r="J290" s="1"/>
@@ -18269,7 +18270,7 @@
       <c r="D291" s="1"/>
       <c r="E291" s="1"/>
       <c r="F291" s="1"/>
-      <c r="G291" s="16"/>
+      <c r="G291" s="15"/>
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
       <c r="J291" s="1"/>
@@ -18322,7 +18323,7 @@
       <c r="D292" s="1"/>
       <c r="E292" s="1"/>
       <c r="F292" s="1"/>
-      <c r="G292" s="16"/>
+      <c r="G292" s="15"/>
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
       <c r="J292" s="1"/>
@@ -18375,7 +18376,7 @@
       <c r="D293" s="1"/>
       <c r="E293" s="1"/>
       <c r="F293" s="1"/>
-      <c r="G293" s="16"/>
+      <c r="G293" s="15"/>
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
       <c r="J293" s="1"/>
@@ -18428,7 +18429,7 @@
       <c r="D294" s="1"/>
       <c r="E294" s="1"/>
       <c r="F294" s="1"/>
-      <c r="G294" s="16"/>
+      <c r="G294" s="15"/>
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
       <c r="J294" s="1"/>
@@ -18481,7 +18482,7 @@
       <c r="D295" s="1"/>
       <c r="E295" s="1"/>
       <c r="F295" s="1"/>
-      <c r="G295" s="16"/>
+      <c r="G295" s="15"/>
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
       <c r="J295" s="1"/>
@@ -18534,7 +18535,7 @@
       <c r="D296" s="1"/>
       <c r="E296" s="1"/>
       <c r="F296" s="1"/>
-      <c r="G296" s="16"/>
+      <c r="G296" s="15"/>
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
       <c r="J296" s="1"/>
@@ -18587,7 +18588,7 @@
       <c r="D297" s="1"/>
       <c r="E297" s="1"/>
       <c r="F297" s="1"/>
-      <c r="G297" s="16"/>
+      <c r="G297" s="15"/>
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
       <c r="J297" s="1"/>
@@ -18640,7 +18641,7 @@
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1"/>
-      <c r="G298" s="16"/>
+      <c r="G298" s="15"/>
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
       <c r="J298" s="1"/>
@@ -18693,7 +18694,7 @@
       <c r="D299" s="1"/>
       <c r="E299" s="1"/>
       <c r="F299" s="1"/>
-      <c r="G299" s="16"/>
+      <c r="G299" s="15"/>
       <c r="H299" s="1"/>
       <c r="I299" s="1"/>
       <c r="J299" s="1"/>
@@ -18746,7 +18747,7 @@
       <c r="D300" s="1"/>
       <c r="E300" s="1"/>
       <c r="F300" s="1"/>
-      <c r="G300" s="16"/>
+      <c r="G300" s="15"/>
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
       <c r="J300" s="1"/>
@@ -18799,7 +18800,7 @@
       <c r="D301" s="1"/>
       <c r="E301" s="1"/>
       <c r="F301" s="1"/>
-      <c r="G301" s="16"/>
+      <c r="G301" s="15"/>
       <c r="H301" s="1"/>
       <c r="I301" s="1"/>
       <c r="J301" s="1"/>
@@ -18852,7 +18853,7 @@
       <c r="D302" s="1"/>
       <c r="E302" s="1"/>
       <c r="F302" s="1"/>
-      <c r="G302" s="16"/>
+      <c r="G302" s="15"/>
       <c r="H302" s="1"/>
       <c r="I302" s="1"/>
       <c r="J302" s="1"/>
@@ -18905,7 +18906,7 @@
       <c r="D303" s="1"/>
       <c r="E303" s="1"/>
       <c r="F303" s="1"/>
-      <c r="G303" s="16"/>
+      <c r="G303" s="15"/>
       <c r="H303" s="1"/>
       <c r="I303" s="1"/>
       <c r="J303" s="1"/>
@@ -18958,7 +18959,7 @@
       <c r="D304" s="1"/>
       <c r="E304" s="1"/>
       <c r="F304" s="1"/>
-      <c r="G304" s="16"/>
+      <c r="G304" s="15"/>
       <c r="H304" s="1"/>
       <c r="I304" s="1"/>
       <c r="J304" s="1"/>
@@ -19011,7 +19012,7 @@
       <c r="D305" s="1"/>
       <c r="E305" s="1"/>
       <c r="F305" s="1"/>
-      <c r="G305" s="16"/>
+      <c r="G305" s="15"/>
       <c r="H305" s="1"/>
       <c r="I305" s="1"/>
       <c r="J305" s="1"/>
@@ -19064,7 +19065,7 @@
       <c r="D306" s="1"/>
       <c r="E306" s="1"/>
       <c r="F306" s="1"/>
-      <c r="G306" s="16"/>
+      <c r="G306" s="15"/>
       <c r="H306" s="1"/>
       <c r="I306" s="1"/>
       <c r="J306" s="1"/>
@@ -19117,7 +19118,7 @@
       <c r="D307" s="1"/>
       <c r="E307" s="1"/>
       <c r="F307" s="1"/>
-      <c r="G307" s="16"/>
+      <c r="G307" s="15"/>
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
       <c r="J307" s="1"/>
@@ -19170,7 +19171,7 @@
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1"/>
-      <c r="G308" s="16"/>
+      <c r="G308" s="15"/>
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
       <c r="J308" s="1"/>
@@ -19223,7 +19224,7 @@
       <c r="D309" s="1"/>
       <c r="E309" s="1"/>
       <c r="F309" s="1"/>
-      <c r="G309" s="16"/>
+      <c r="G309" s="15"/>
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
       <c r="J309" s="1"/>
@@ -19276,7 +19277,7 @@
       <c r="D310" s="1"/>
       <c r="E310" s="1"/>
       <c r="F310" s="1"/>
-      <c r="G310" s="16"/>
+      <c r="G310" s="15"/>
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
       <c r="J310" s="1"/>
@@ -19329,7 +19330,7 @@
       <c r="D311" s="1"/>
       <c r="E311" s="1"/>
       <c r="F311" s="1"/>
-      <c r="G311" s="16"/>
+      <c r="G311" s="15"/>
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
       <c r="J311" s="1"/>
@@ -19382,7 +19383,7 @@
       <c r="D312" s="1"/>
       <c r="E312" s="1"/>
       <c r="F312" s="1"/>
-      <c r="G312" s="16"/>
+      <c r="G312" s="15"/>
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
       <c r="J312" s="1"/>
@@ -19435,7 +19436,7 @@
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1"/>
-      <c r="G313" s="16"/>
+      <c r="G313" s="15"/>
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
       <c r="J313" s="1"/>
@@ -19488,7 +19489,7 @@
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1"/>
-      <c r="G314" s="16"/>
+      <c r="G314" s="15"/>
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
       <c r="J314" s="1"/>
@@ -19541,7 +19542,7 @@
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1"/>
-      <c r="G315" s="16"/>
+      <c r="G315" s="15"/>
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
       <c r="J315" s="1"/>
@@ -19594,7 +19595,7 @@
       <c r="D316" s="1"/>
       <c r="E316" s="1"/>
       <c r="F316" s="1"/>
-      <c r="G316" s="16"/>
+      <c r="G316" s="15"/>
       <c r="H316" s="1"/>
       <c r="I316" s="1"/>
       <c r="J316" s="1"/>
@@ -19647,7 +19648,7 @@
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1"/>
-      <c r="G317" s="16"/>
+      <c r="G317" s="15"/>
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
       <c r="J317" s="1"/>
@@ -19700,7 +19701,7 @@
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1"/>
-      <c r="G318" s="16"/>
+      <c r="G318" s="15"/>
       <c r="H318" s="1"/>
       <c r="I318" s="1"/>
       <c r="J318" s="1"/>
@@ -19753,7 +19754,7 @@
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1"/>
-      <c r="G319" s="16"/>
+      <c r="G319" s="15"/>
       <c r="H319" s="1"/>
       <c r="I319" s="1"/>
       <c r="J319" s="1"/>
@@ -19806,7 +19807,7 @@
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1"/>
-      <c r="G320" s="16"/>
+      <c r="G320" s="15"/>
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
       <c r="J320" s="1"/>
@@ -19859,7 +19860,7 @@
       <c r="D321" s="1"/>
       <c r="E321" s="1"/>
       <c r="F321" s="1"/>
-      <c r="G321" s="16"/>
+      <c r="G321" s="15"/>
       <c r="H321" s="1"/>
       <c r="I321" s="1"/>
       <c r="J321" s="1"/>
@@ -19912,7 +19913,7 @@
       <c r="D322" s="1"/>
       <c r="E322" s="1"/>
       <c r="F322" s="1"/>
-      <c r="G322" s="16"/>
+      <c r="G322" s="15"/>
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
       <c r="J322" s="1"/>
@@ -19965,7 +19966,7 @@
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1"/>
-      <c r="G323" s="16"/>
+      <c r="G323" s="15"/>
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
       <c r="J323" s="1"/>
@@ -20018,7 +20019,7 @@
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1"/>
-      <c r="G324" s="16"/>
+      <c r="G324" s="15"/>
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
       <c r="J324" s="1"/>
@@ -20071,7 +20072,7 @@
       <c r="D325" s="1"/>
       <c r="E325" s="1"/>
       <c r="F325" s="1"/>
-      <c r="G325" s="16"/>
+      <c r="G325" s="15"/>
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
       <c r="J325" s="1"/>
@@ -20124,7 +20125,7 @@
       <c r="D326" s="1"/>
       <c r="E326" s="1"/>
       <c r="F326" s="1"/>
-      <c r="G326" s="16"/>
+      <c r="G326" s="15"/>
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
       <c r="J326" s="1"/>
@@ -20177,7 +20178,7 @@
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1"/>
-      <c r="G327" s="16"/>
+      <c r="G327" s="15"/>
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
       <c r="J327" s="1"/>
@@ -20230,7 +20231,7 @@
       <c r="D328" s="1"/>
       <c r="E328" s="1"/>
       <c r="F328" s="1"/>
-      <c r="G328" s="16"/>
+      <c r="G328" s="15"/>
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
       <c r="J328" s="1"/>
@@ -20283,7 +20284,7 @@
       <c r="D329" s="1"/>
       <c r="E329" s="1"/>
       <c r="F329" s="1"/>
-      <c r="G329" s="16"/>
+      <c r="G329" s="15"/>
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
       <c r="J329" s="1"/>
@@ -20336,7 +20337,7 @@
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1"/>
-      <c r="G330" s="16"/>
+      <c r="G330" s="15"/>
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
       <c r="J330" s="1"/>
@@ -20389,7 +20390,7 @@
       <c r="D331" s="1"/>
       <c r="E331" s="1"/>
       <c r="F331" s="1"/>
-      <c r="G331" s="16"/>
+      <c r="G331" s="15"/>
       <c r="H331" s="1"/>
       <c r="I331" s="1"/>
       <c r="J331" s="1"/>
@@ -20442,7 +20443,7 @@
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1"/>
-      <c r="G332" s="16"/>
+      <c r="G332" s="15"/>
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
       <c r="J332" s="1"/>
@@ -20495,7 +20496,7 @@
       <c r="D333" s="1"/>
       <c r="E333" s="1"/>
       <c r="F333" s="1"/>
-      <c r="G333" s="16"/>
+      <c r="G333" s="15"/>
       <c r="H333" s="1"/>
       <c r="I333" s="1"/>
       <c r="J333" s="1"/>
@@ -20548,7 +20549,7 @@
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1"/>
-      <c r="G334" s="16"/>
+      <c r="G334" s="15"/>
       <c r="H334" s="1"/>
       <c r="I334" s="1"/>
       <c r="J334" s="1"/>
@@ -20601,7 +20602,7 @@
       <c r="D335" s="1"/>
       <c r="E335" s="1"/>
       <c r="F335" s="1"/>
-      <c r="G335" s="16"/>
+      <c r="G335" s="15"/>
       <c r="H335" s="1"/>
       <c r="I335" s="1"/>
       <c r="J335" s="1"/>
@@ -20654,7 +20655,7 @@
       <c r="D336" s="1"/>
       <c r="E336" s="1"/>
       <c r="F336" s="1"/>
-      <c r="G336" s="16"/>
+      <c r="G336" s="15"/>
       <c r="H336" s="1"/>
       <c r="I336" s="1"/>
       <c r="J336" s="1"/>
@@ -20707,7 +20708,7 @@
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1"/>
-      <c r="G337" s="16"/>
+      <c r="G337" s="15"/>
       <c r="H337" s="1"/>
       <c r="I337" s="1"/>
       <c r="J337" s="1"/>
@@ -20760,7 +20761,7 @@
       <c r="D338" s="1"/>
       <c r="E338" s="1"/>
       <c r="F338" s="1"/>
-      <c r="G338" s="16"/>
+      <c r="G338" s="15"/>
       <c r="H338" s="1"/>
       <c r="I338" s="1"/>
       <c r="J338" s="1"/>
@@ -20813,7 +20814,7 @@
       <c r="D339" s="1"/>
       <c r="E339" s="1"/>
       <c r="F339" s="1"/>
-      <c r="G339" s="16"/>
+      <c r="G339" s="15"/>
       <c r="H339" s="1"/>
       <c r="I339" s="1"/>
       <c r="J339" s="1"/>
@@ -20866,7 +20867,7 @@
       <c r="D340" s="1"/>
       <c r="E340" s="1"/>
       <c r="F340" s="1"/>
-      <c r="G340" s="16"/>
+      <c r="G340" s="15"/>
       <c r="H340" s="1"/>
       <c r="I340" s="1"/>
       <c r="J340" s="1"/>
@@ -20919,7 +20920,7 @@
       <c r="D341" s="1"/>
       <c r="E341" s="1"/>
       <c r="F341" s="1"/>
-      <c r="G341" s="16"/>
+      <c r="G341" s="15"/>
       <c r="H341" s="1"/>
       <c r="I341" s="1"/>
       <c r="J341" s="1"/>
@@ -20972,7 +20973,7 @@
       <c r="D342" s="1"/>
       <c r="E342" s="1"/>
       <c r="F342" s="1"/>
-      <c r="G342" s="16"/>
+      <c r="G342" s="15"/>
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
       <c r="J342" s="1"/>
@@ -21025,7 +21026,7 @@
       <c r="D343" s="1"/>
       <c r="E343" s="1"/>
       <c r="F343" s="1"/>
-      <c r="G343" s="16"/>
+      <c r="G343" s="15"/>
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
       <c r="J343" s="1"/>
@@ -21078,7 +21079,7 @@
       <c r="D344" s="1"/>
       <c r="E344" s="1"/>
       <c r="F344" s="1"/>
-      <c r="G344" s="16"/>
+      <c r="G344" s="15"/>
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
       <c r="J344" s="1"/>
@@ -21131,7 +21132,7 @@
       <c r="D345" s="1"/>
       <c r="E345" s="1"/>
       <c r="F345" s="1"/>
-      <c r="G345" s="16"/>
+      <c r="G345" s="15"/>
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
       <c r="J345" s="1"/>
@@ -21184,7 +21185,7 @@
       <c r="D346" s="1"/>
       <c r="E346" s="1"/>
       <c r="F346" s="1"/>
-      <c r="G346" s="16"/>
+      <c r="G346" s="15"/>
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
       <c r="J346" s="1"/>
@@ -21237,7 +21238,7 @@
       <c r="D347" s="1"/>
       <c r="E347" s="1"/>
       <c r="F347" s="1"/>
-      <c r="G347" s="16"/>
+      <c r="G347" s="15"/>
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
       <c r="J347" s="1"/>
@@ -21290,7 +21291,7 @@
       <c r="D348" s="1"/>
       <c r="E348" s="1"/>
       <c r="F348" s="1"/>
-      <c r="G348" s="16"/>
+      <c r="G348" s="15"/>
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
       <c r="J348" s="1"/>
@@ -21343,7 +21344,7 @@
       <c r="D349" s="1"/>
       <c r="E349" s="1"/>
       <c r="F349" s="1"/>
-      <c r="G349" s="16"/>
+      <c r="G349" s="15"/>
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
       <c r="J349" s="1"/>
@@ -21396,7 +21397,7 @@
       <c r="D350" s="1"/>
       <c r="E350" s="1"/>
       <c r="F350" s="1"/>
-      <c r="G350" s="16"/>
+      <c r="G350" s="15"/>
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
       <c r="J350" s="1"/>
@@ -21449,7 +21450,7 @@
       <c r="D351" s="1"/>
       <c r="E351" s="1"/>
       <c r="F351" s="1"/>
-      <c r="G351" s="16"/>
+      <c r="G351" s="15"/>
       <c r="H351" s="1"/>
       <c r="I351" s="1"/>
       <c r="J351" s="1"/>
@@ -21502,7 +21503,7 @@
       <c r="D352" s="1"/>
       <c r="E352" s="1"/>
       <c r="F352" s="1"/>
-      <c r="G352" s="16"/>
+      <c r="G352" s="15"/>
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
       <c r="J352" s="1"/>
@@ -21555,7 +21556,7 @@
       <c r="D353" s="1"/>
       <c r="E353" s="1"/>
       <c r="F353" s="1"/>
-      <c r="G353" s="16"/>
+      <c r="G353" s="15"/>
       <c r="H353" s="1"/>
       <c r="I353" s="1"/>
       <c r="J353" s="1"/>
@@ -21608,7 +21609,7 @@
       <c r="D354" s="1"/>
       <c r="E354" s="1"/>
       <c r="F354" s="1"/>
-      <c r="G354" s="16"/>
+      <c r="G354" s="15"/>
       <c r="H354" s="1"/>
       <c r="I354" s="1"/>
       <c r="J354" s="1"/>
@@ -21661,7 +21662,7 @@
       <c r="D355" s="1"/>
       <c r="E355" s="1"/>
       <c r="F355" s="1"/>
-      <c r="G355" s="16"/>
+      <c r="G355" s="15"/>
       <c r="H355" s="1"/>
       <c r="I355" s="1"/>
       <c r="J355" s="1"/>
@@ -21714,7 +21715,7 @@
       <c r="D356" s="1"/>
       <c r="E356" s="1"/>
       <c r="F356" s="1"/>
-      <c r="G356" s="16"/>
+      <c r="G356" s="15"/>
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
       <c r="J356" s="1"/>
@@ -21767,7 +21768,7 @@
       <c r="D357" s="1"/>
       <c r="E357" s="1"/>
       <c r="F357" s="1"/>
-      <c r="G357" s="16"/>
+      <c r="G357" s="15"/>
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
       <c r="J357" s="1"/>
@@ -21820,7 +21821,7 @@
       <c r="D358" s="1"/>
       <c r="E358" s="1"/>
       <c r="F358" s="1"/>
-      <c r="G358" s="16"/>
+      <c r="G358" s="15"/>
       <c r="H358" s="1"/>
       <c r="I358" s="1"/>
       <c r="J358" s="1"/>
@@ -21873,7 +21874,7 @@
       <c r="D359" s="1"/>
       <c r="E359" s="1"/>
       <c r="F359" s="1"/>
-      <c r="G359" s="16"/>
+      <c r="G359" s="15"/>
       <c r="H359" s="1"/>
       <c r="I359" s="1"/>
       <c r="J359" s="1"/>
@@ -21926,7 +21927,7 @@
       <c r="D360" s="1"/>
       <c r="E360" s="1"/>
       <c r="F360" s="1"/>
-      <c r="G360" s="16"/>
+      <c r="G360" s="15"/>
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
       <c r="J360" s="1"/>
@@ -21979,7 +21980,7 @@
       <c r="D361" s="1"/>
       <c r="E361" s="1"/>
       <c r="F361" s="1"/>
-      <c r="G361" s="16"/>
+      <c r="G361" s="15"/>
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
       <c r="J361" s="1"/>
@@ -22032,7 +22033,7 @@
       <c r="D362" s="1"/>
       <c r="E362" s="1"/>
       <c r="F362" s="1"/>
-      <c r="G362" s="16"/>
+      <c r="G362" s="15"/>
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
       <c r="J362" s="1"/>
@@ -22085,7 +22086,7 @@
       <c r="D363" s="1"/>
       <c r="E363" s="1"/>
       <c r="F363" s="1"/>
-      <c r="G363" s="16"/>
+      <c r="G363" s="15"/>
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
       <c r="J363" s="1"/>
@@ -22138,7 +22139,7 @@
       <c r="D364" s="1"/>
       <c r="E364" s="1"/>
       <c r="F364" s="1"/>
-      <c r="G364" s="16"/>
+      <c r="G364" s="15"/>
       <c r="H364" s="1"/>
       <c r="I364" s="1"/>
       <c r="J364" s="1"/>
@@ -22191,7 +22192,7 @@
       <c r="D365" s="1"/>
       <c r="E365" s="1"/>
       <c r="F365" s="1"/>
-      <c r="G365" s="16"/>
+      <c r="G365" s="15"/>
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
       <c r="J365" s="1"/>
@@ -22244,7 +22245,7 @@
       <c r="D366" s="1"/>
       <c r="E366" s="1"/>
       <c r="F366" s="1"/>
-      <c r="G366" s="16"/>
+      <c r="G366" s="15"/>
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
       <c r="J366" s="1"/>
@@ -22297,7 +22298,7 @@
       <c r="D367" s="1"/>
       <c r="E367" s="1"/>
       <c r="F367" s="1"/>
-      <c r="G367" s="16"/>
+      <c r="G367" s="15"/>
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
       <c r="J367" s="1"/>
@@ -22350,7 +22351,7 @@
       <c r="D368" s="1"/>
       <c r="E368" s="1"/>
       <c r="F368" s="1"/>
-      <c r="G368" s="16"/>
+      <c r="G368" s="15"/>
       <c r="H368" s="1"/>
       <c r="I368" s="1"/>
       <c r="J368" s="1"/>
@@ -22403,7 +22404,7 @@
       <c r="D369" s="1"/>
       <c r="E369" s="1"/>
       <c r="F369" s="1"/>
-      <c r="G369" s="16"/>
+      <c r="G369" s="15"/>
       <c r="H369" s="1"/>
       <c r="I369" s="1"/>
       <c r="J369" s="1"/>
@@ -22456,7 +22457,7 @@
       <c r="D370" s="1"/>
       <c r="E370" s="1"/>
       <c r="F370" s="1"/>
-      <c r="G370" s="16"/>
+      <c r="G370" s="15"/>
       <c r="H370" s="1"/>
       <c r="I370" s="1"/>
       <c r="J370" s="1"/>
@@ -22509,7 +22510,7 @@
       <c r="D371" s="1"/>
       <c r="E371" s="1"/>
       <c r="F371" s="1"/>
-      <c r="G371" s="16"/>
+      <c r="G371" s="15"/>
       <c r="H371" s="1"/>
       <c r="I371" s="1"/>
       <c r="J371" s="1"/>
@@ -22562,7 +22563,7 @@
       <c r="D372" s="1"/>
       <c r="E372" s="1"/>
       <c r="F372" s="1"/>
-      <c r="G372" s="16"/>
+      <c r="G372" s="15"/>
       <c r="H372" s="1"/>
       <c r="I372" s="1"/>
       <c r="J372" s="1"/>
@@ -22615,7 +22616,7 @@
       <c r="D373" s="1"/>
       <c r="E373" s="1"/>
       <c r="F373" s="1"/>
-      <c r="G373" s="16"/>
+      <c r="G373" s="15"/>
       <c r="H373" s="1"/>
       <c r="I373" s="1"/>
       <c r="J373" s="1"/>
@@ -22668,7 +22669,7 @@
       <c r="D374" s="1"/>
       <c r="E374" s="1"/>
       <c r="F374" s="1"/>
-      <c r="G374" s="16"/>
+      <c r="G374" s="15"/>
       <c r="H374" s="1"/>
       <c r="I374" s="1"/>
       <c r="J374" s="1"/>
@@ -22721,7 +22722,7 @@
       <c r="D375" s="1"/>
       <c r="E375" s="1"/>
       <c r="F375" s="1"/>
-      <c r="G375" s="16"/>
+      <c r="G375" s="15"/>
       <c r="H375" s="1"/>
       <c r="I375" s="1"/>
       <c r="J375" s="1"/>
@@ -22774,7 +22775,7 @@
       <c r="D376" s="1"/>
       <c r="E376" s="1"/>
       <c r="F376" s="1"/>
-      <c r="G376" s="16"/>
+      <c r="G376" s="15"/>
       <c r="H376" s="1"/>
       <c r="I376" s="1"/>
       <c r="J376" s="1"/>
@@ -22827,7 +22828,7 @@
       <c r="D377" s="1"/>
       <c r="E377" s="1"/>
       <c r="F377" s="1"/>
-      <c r="G377" s="16"/>
+      <c r="G377" s="15"/>
       <c r="H377" s="1"/>
       <c r="I377" s="1"/>
       <c r="J377" s="1"/>
@@ -22880,7 +22881,7 @@
       <c r="D378" s="1"/>
       <c r="E378" s="1"/>
       <c r="F378" s="1"/>
-      <c r="G378" s="16"/>
+      <c r="G378" s="15"/>
       <c r="H378" s="1"/>
       <c r="I378" s="1"/>
       <c r="J378" s="1"/>
@@ -22933,7 +22934,7 @@
       <c r="D379" s="1"/>
       <c r="E379" s="1"/>
       <c r="F379" s="1"/>
-      <c r="G379" s="16"/>
+      <c r="G379" s="15"/>
       <c r="H379" s="1"/>
       <c r="I379" s="1"/>
       <c r="J379" s="1"/>
@@ -22986,7 +22987,7 @@
       <c r="D380" s="1"/>
       <c r="E380" s="1"/>
       <c r="F380" s="1"/>
-      <c r="G380" s="16"/>
+      <c r="G380" s="15"/>
       <c r="H380" s="1"/>
       <c r="I380" s="1"/>
       <c r="J380" s="1"/>
@@ -23039,7 +23040,7 @@
       <c r="D381" s="1"/>
       <c r="E381" s="1"/>
       <c r="F381" s="1"/>
-      <c r="G381" s="16"/>
+      <c r="G381" s="15"/>
       <c r="H381" s="1"/>
       <c r="I381" s="1"/>
       <c r="J381" s="1"/>
@@ -23092,7 +23093,7 @@
       <c r="D382" s="1"/>
       <c r="E382" s="1"/>
       <c r="F382" s="1"/>
-      <c r="G382" s="16"/>
+      <c r="G382" s="15"/>
       <c r="H382" s="1"/>
       <c r="I382" s="1"/>
       <c r="J382" s="1"/>
@@ -23145,7 +23146,7 @@
       <c r="D383" s="1"/>
       <c r="E383" s="1"/>
       <c r="F383" s="1"/>
-      <c r="G383" s="16"/>
+      <c r="G383" s="15"/>
       <c r="H383" s="1"/>
       <c r="I383" s="1"/>
       <c r="J383" s="1"/>
@@ -23198,7 +23199,7 @@
       <c r="D384" s="1"/>
       <c r="E384" s="1"/>
       <c r="F384" s="1"/>
-      <c r="G384" s="16"/>
+      <c r="G384" s="15"/>
       <c r="H384" s="1"/>
       <c r="I384" s="1"/>
       <c r="J384" s="1"/>
@@ -23251,7 +23252,7 @@
       <c r="D385" s="1"/>
       <c r="E385" s="1"/>
       <c r="F385" s="1"/>
-      <c r="G385" s="16"/>
+      <c r="G385" s="15"/>
       <c r="H385" s="1"/>
       <c r="I385" s="1"/>
       <c r="J385" s="1"/>
@@ -23304,7 +23305,7 @@
       <c r="D386" s="1"/>
       <c r="E386" s="1"/>
       <c r="F386" s="1"/>
-      <c r="G386" s="16"/>
+      <c r="G386" s="15"/>
       <c r="H386" s="1"/>
       <c r="I386" s="1"/>
       <c r="J386" s="1"/>
@@ -23357,7 +23358,7 @@
       <c r="D387" s="1"/>
       <c r="E387" s="1"/>
       <c r="F387" s="1"/>
-      <c r="G387" s="16"/>
+      <c r="G387" s="15"/>
       <c r="H387" s="1"/>
       <c r="I387" s="1"/>
       <c r="J387" s="1"/>
@@ -23410,7 +23411,7 @@
       <c r="D388" s="1"/>
       <c r="E388" s="1"/>
       <c r="F388" s="1"/>
-      <c r="G388" s="16"/>
+      <c r="G388" s="15"/>
       <c r="H388" s="1"/>
       <c r="I388" s="1"/>
       <c r="J388" s="1"/>
@@ -23463,7 +23464,7 @@
       <c r="D389" s="1"/>
       <c r="E389" s="1"/>
       <c r="F389" s="1"/>
-      <c r="G389" s="16"/>
+      <c r="G389" s="15"/>
       <c r="H389" s="1"/>
       <c r="I389" s="1"/>
       <c r="J389" s="1"/>
@@ -23516,7 +23517,7 @@
       <c r="D390" s="1"/>
       <c r="E390" s="1"/>
       <c r="F390" s="1"/>
-      <c r="G390" s="16"/>
+      <c r="G390" s="15"/>
       <c r="H390" s="1"/>
       <c r="I390" s="1"/>
       <c r="J390" s="1"/>
@@ -23569,7 +23570,7 @@
       <c r="D391" s="1"/>
       <c r="E391" s="1"/>
       <c r="F391" s="1"/>
-      <c r="G391" s="16"/>
+      <c r="G391" s="15"/>
       <c r="H391" s="1"/>
       <c r="I391" s="1"/>
       <c r="J391" s="1"/>
@@ -23622,7 +23623,7 @@
       <c r="D392" s="1"/>
       <c r="E392" s="1"/>
       <c r="F392" s="1"/>
-      <c r="G392" s="16"/>
+      <c r="G392" s="15"/>
       <c r="H392" s="1"/>
       <c r="I392" s="1"/>
       <c r="J392" s="1"/>
@@ -23675,7 +23676,7 @@
       <c r="D393" s="1"/>
       <c r="E393" s="1"/>
       <c r="F393" s="1"/>
-      <c r="G393" s="16"/>
+      <c r="G393" s="15"/>
       <c r="H393" s="1"/>
       <c r="I393" s="1"/>
       <c r="J393" s="1"/>
@@ -23728,7 +23729,7 @@
       <c r="D394" s="1"/>
       <c r="E394" s="1"/>
       <c r="F394" s="1"/>
-      <c r="G394" s="16"/>
+      <c r="G394" s="15"/>
       <c r="H394" s="1"/>
       <c r="I394" s="1"/>
       <c r="J394" s="1"/>
@@ -23781,7 +23782,7 @@
       <c r="D395" s="1"/>
       <c r="E395" s="1"/>
       <c r="F395" s="1"/>
-      <c r="G395" s="16"/>
+      <c r="G395" s="15"/>
       <c r="H395" s="1"/>
       <c r="I395" s="1"/>
       <c r="J395" s="1"/>
@@ -23834,7 +23835,7 @@
       <c r="D396" s="1"/>
       <c r="E396" s="1"/>
       <c r="F396" s="1"/>
-      <c r="G396" s="16"/>
+      <c r="G396" s="15"/>
       <c r="H396" s="1"/>
       <c r="I396" s="1"/>
       <c r="J396" s="1"/>
@@ -23887,7 +23888,7 @@
       <c r="D397" s="1"/>
       <c r="E397" s="1"/>
       <c r="F397" s="1"/>
-      <c r="G397" s="16"/>
+      <c r="G397" s="15"/>
       <c r="H397" s="1"/>
       <c r="I397" s="1"/>
       <c r="J397" s="1"/>
@@ -23940,7 +23941,7 @@
       <c r="D398" s="1"/>
       <c r="E398" s="1"/>
       <c r="F398" s="1"/>
-      <c r="G398" s="16"/>
+      <c r="G398" s="15"/>
       <c r="H398" s="1"/>
       <c r="I398" s="1"/>
       <c r="J398" s="1"/>
@@ -23993,7 +23994,7 @@
       <c r="D399" s="1"/>
       <c r="E399" s="1"/>
       <c r="F399" s="1"/>
-      <c r="G399" s="16"/>
+      <c r="G399" s="15"/>
       <c r="H399" s="1"/>
       <c r="I399" s="1"/>
       <c r="J399" s="1"/>
@@ -24046,7 +24047,7 @@
       <c r="D400" s="1"/>
       <c r="E400" s="1"/>
       <c r="F400" s="1"/>
-      <c r="G400" s="16"/>
+      <c r="G400" s="15"/>
       <c r="H400" s="1"/>
       <c r="I400" s="1"/>
       <c r="J400" s="1"/>
@@ -24099,7 +24100,7 @@
       <c r="D401" s="1"/>
       <c r="E401" s="1"/>
       <c r="F401" s="1"/>
-      <c r="G401" s="16"/>
+      <c r="G401" s="15"/>
       <c r="H401" s="1"/>
       <c r="I401" s="1"/>
       <c r="J401" s="1"/>
@@ -24152,7 +24153,7 @@
       <c r="D402" s="1"/>
       <c r="E402" s="1"/>
       <c r="F402" s="1"/>
-      <c r="G402" s="16"/>
+      <c r="G402" s="15"/>
       <c r="H402" s="1"/>
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
@@ -24205,7 +24206,7 @@
       <c r="D403" s="1"/>
       <c r="E403" s="1"/>
       <c r="F403" s="1"/>
-      <c r="G403" s="16"/>
+      <c r="G403" s="15"/>
       <c r="H403" s="1"/>
       <c r="I403" s="1"/>
       <c r="J403" s="1"/>
@@ -24258,7 +24259,7 @@
       <c r="D404" s="1"/>
       <c r="E404" s="1"/>
       <c r="F404" s="1"/>
-      <c r="G404" s="16"/>
+      <c r="G404" s="15"/>
       <c r="H404" s="1"/>
       <c r="I404" s="1"/>
       <c r="J404" s="1"/>
@@ -24311,7 +24312,7 @@
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
-      <c r="G405" s="16"/>
+      <c r="G405" s="15"/>
       <c r="H405" s="1"/>
       <c r="I405" s="1"/>
       <c r="J405" s="1"/>
@@ -24364,7 +24365,7 @@
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
-      <c r="G406" s="16"/>
+      <c r="G406" s="15"/>
       <c r="H406" s="1"/>
       <c r="I406" s="1"/>
       <c r="J406" s="1"/>
@@ -24417,7 +24418,7 @@
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
-      <c r="G407" s="16"/>
+      <c r="G407" s="15"/>
       <c r="H407" s="1"/>
       <c r="I407" s="1"/>
       <c r="J407" s="1"/>
@@ -24470,7 +24471,7 @@
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
-      <c r="G408" s="16"/>
+      <c r="G408" s="15"/>
       <c r="H408" s="1"/>
       <c r="I408" s="1"/>
       <c r="J408" s="1"/>
@@ -24523,7 +24524,7 @@
       <c r="D409" s="1"/>
       <c r="E409" s="1"/>
       <c r="F409" s="1"/>
-      <c r="G409" s="16"/>
+      <c r="G409" s="15"/>
       <c r="H409" s="1"/>
       <c r="I409" s="1"/>
       <c r="J409" s="1"/>
@@ -24576,7 +24577,7 @@
       <c r="D410" s="1"/>
       <c r="E410" s="1"/>
       <c r="F410" s="1"/>
-      <c r="G410" s="16"/>
+      <c r="G410" s="15"/>
       <c r="H410" s="1"/>
       <c r="I410" s="1"/>
       <c r="J410" s="1"/>
@@ -24629,7 +24630,7 @@
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
-      <c r="G411" s="16"/>
+      <c r="G411" s="15"/>
       <c r="H411" s="1"/>
       <c r="I411" s="1"/>
       <c r="J411" s="1"/>
@@ -24682,7 +24683,7 @@
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
-      <c r="G412" s="16"/>
+      <c r="G412" s="15"/>
       <c r="H412" s="1"/>
       <c r="I412" s="1"/>
       <c r="J412" s="1"/>
@@ -24735,7 +24736,7 @@
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
-      <c r="G413" s="16"/>
+      <c r="G413" s="15"/>
       <c r="H413" s="1"/>
       <c r="I413" s="1"/>
       <c r="J413" s="1"/>
@@ -24788,7 +24789,7 @@
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
-      <c r="G414" s="16"/>
+      <c r="G414" s="15"/>
       <c r="H414" s="1"/>
       <c r="I414" s="1"/>
       <c r="J414" s="1"/>
@@ -24841,7 +24842,7 @@
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
-      <c r="G415" s="16"/>
+      <c r="G415" s="15"/>
       <c r="H415" s="1"/>
       <c r="I415" s="1"/>
       <c r="J415" s="1"/>
@@ -24894,7 +24895,7 @@
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
-      <c r="G416" s="16"/>
+      <c r="G416" s="15"/>
       <c r="H416" s="1"/>
       <c r="I416" s="1"/>
       <c r="J416" s="1"/>
@@ -24947,7 +24948,7 @@
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
-      <c r="G417" s="16"/>
+      <c r="G417" s="15"/>
       <c r="H417" s="1"/>
       <c r="I417" s="1"/>
       <c r="J417" s="1"/>
@@ -25000,7 +25001,7 @@
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
-      <c r="G418" s="16"/>
+      <c r="G418" s="15"/>
       <c r="H418" s="1"/>
       <c r="I418" s="1"/>
       <c r="J418" s="1"/>
@@ -25053,7 +25054,7 @@
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
-      <c r="G419" s="16"/>
+      <c r="G419" s="15"/>
       <c r="H419" s="1"/>
       <c r="I419" s="1"/>
       <c r="J419" s="1"/>
@@ -25106,7 +25107,7 @@
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
-      <c r="G420" s="16"/>
+      <c r="G420" s="15"/>
       <c r="H420" s="1"/>
       <c r="I420" s="1"/>
       <c r="J420" s="1"/>
@@ -25159,7 +25160,7 @@
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
-      <c r="G421" s="16"/>
+      <c r="G421" s="15"/>
       <c r="H421" s="1"/>
       <c r="I421" s="1"/>
       <c r="J421" s="1"/>
@@ -25212,7 +25213,7 @@
       <c r="D422" s="1"/>
       <c r="E422" s="1"/>
       <c r="F422" s="1"/>
-      <c r="G422" s="16"/>
+      <c r="G422" s="15"/>
       <c r="H422" s="1"/>
       <c r="I422" s="1"/>
       <c r="J422" s="1"/>
@@ -25265,7 +25266,7 @@
       <c r="D423" s="1"/>
       <c r="E423" s="1"/>
       <c r="F423" s="1"/>
-      <c r="G423" s="16"/>
+      <c r="G423" s="15"/>
       <c r="H423" s="1"/>
       <c r="I423" s="1"/>
       <c r="J423" s="1"/>
@@ -25318,7 +25319,7 @@
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
-      <c r="G424" s="16"/>
+      <c r="G424" s="15"/>
       <c r="H424" s="1"/>
       <c r="I424" s="1"/>
       <c r="J424" s="1"/>
@@ -25371,7 +25372,7 @@
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
-      <c r="G425" s="16"/>
+      <c r="G425" s="15"/>
       <c r="H425" s="1"/>
       <c r="I425" s="1"/>
       <c r="J425" s="1"/>
@@ -25424,7 +25425,7 @@
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
-      <c r="G426" s="16"/>
+      <c r="G426" s="15"/>
       <c r="H426" s="1"/>
       <c r="I426" s="1"/>
       <c r="J426" s="1"/>
@@ -25477,7 +25478,7 @@
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
-      <c r="G427" s="16"/>
+      <c r="G427" s="15"/>
       <c r="H427" s="1"/>
       <c r="I427" s="1"/>
       <c r="J427" s="1"/>
@@ -25530,7 +25531,7 @@
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
-      <c r="G428" s="16"/>
+      <c r="G428" s="15"/>
       <c r="H428" s="1"/>
       <c r="I428" s="1"/>
       <c r="J428" s="1"/>
@@ -25583,7 +25584,7 @@
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
-      <c r="G429" s="16"/>
+      <c r="G429" s="15"/>
       <c r="H429" s="1"/>
       <c r="I429" s="1"/>
       <c r="J429" s="1"/>
@@ -25636,7 +25637,7 @@
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
-      <c r="G430" s="16"/>
+      <c r="G430" s="15"/>
       <c r="H430" s="1"/>
       <c r="I430" s="1"/>
       <c r="J430" s="1"/>
@@ -25689,7 +25690,7 @@
       <c r="D431" s="1"/>
       <c r="E431" s="1"/>
       <c r="F431" s="1"/>
-      <c r="G431" s="16"/>
+      <c r="G431" s="15"/>
       <c r="H431" s="1"/>
       <c r="I431" s="1"/>
       <c r="J431" s="1"/>
@@ -25742,7 +25743,7 @@
       <c r="D432" s="1"/>
       <c r="E432" s="1"/>
       <c r="F432" s="1"/>
-      <c r="G432" s="16"/>
+      <c r="G432" s="15"/>
       <c r="H432" s="1"/>
       <c r="I432" s="1"/>
       <c r="J432" s="1"/>
@@ -25795,7 +25796,7 @@
       <c r="D433" s="1"/>
       <c r="E433" s="1"/>
       <c r="F433" s="1"/>
-      <c r="G433" s="16"/>
+      <c r="G433" s="15"/>
       <c r="H433" s="1"/>
       <c r="I433" s="1"/>
       <c r="J433" s="1"/>
@@ -25848,7 +25849,7 @@
       <c r="D434" s="1"/>
       <c r="E434" s="1"/>
       <c r="F434" s="1"/>
-      <c r="G434" s="16"/>
+      <c r="G434" s="15"/>
       <c r="H434" s="1"/>
       <c r="I434" s="1"/>
       <c r="J434" s="1"/>
@@ -25901,7 +25902,7 @@
       <c r="D435" s="1"/>
       <c r="E435" s="1"/>
       <c r="F435" s="1"/>
-      <c r="G435" s="16"/>
+      <c r="G435" s="15"/>
       <c r="H435" s="1"/>
       <c r="I435" s="1"/>
       <c r="J435" s="1"/>
@@ -25954,7 +25955,7 @@
       <c r="D436" s="1"/>
       <c r="E436" s="1"/>
       <c r="F436" s="1"/>
-      <c r="G436" s="16"/>
+      <c r="G436" s="15"/>
       <c r="H436" s="1"/>
       <c r="I436" s="1"/>
       <c r="J436" s="1"/>
@@ -26007,7 +26008,7 @@
       <c r="D437" s="1"/>
       <c r="E437" s="1"/>
       <c r="F437" s="1"/>
-      <c r="G437" s="16"/>
+      <c r="G437" s="15"/>
       <c r="H437" s="1"/>
       <c r="I437" s="1"/>
       <c r="J437" s="1"/>
@@ -26060,7 +26061,7 @@
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
-      <c r="G438" s="16"/>
+      <c r="G438" s="15"/>
       <c r="H438" s="1"/>
       <c r="I438" s="1"/>
       <c r="J438" s="1"/>
@@ -26113,7 +26114,7 @@
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
       <c r="F439" s="1"/>
-      <c r="G439" s="16"/>
+      <c r="G439" s="15"/>
       <c r="H439" s="1"/>
       <c r="I439" s="1"/>
       <c r="J439" s="1"/>
@@ -26166,7 +26167,7 @@
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
       <c r="F440" s="1"/>
-      <c r="G440" s="16"/>
+      <c r="G440" s="15"/>
       <c r="H440" s="1"/>
       <c r="I440" s="1"/>
       <c r="J440" s="1"/>
@@ -26219,7 +26220,7 @@
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
       <c r="F441" s="1"/>
-      <c r="G441" s="16"/>
+      <c r="G441" s="15"/>
       <c r="H441" s="1"/>
       <c r="I441" s="1"/>
       <c r="J441" s="1"/>
@@ -26272,7 +26273,7 @@
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
       <c r="F442" s="1"/>
-      <c r="G442" s="16"/>
+      <c r="G442" s="15"/>
       <c r="H442" s="1"/>
       <c r="I442" s="1"/>
       <c r="J442" s="1"/>
@@ -26325,7 +26326,7 @@
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
       <c r="F443" s="1"/>
-      <c r="G443" s="16"/>
+      <c r="G443" s="15"/>
       <c r="H443" s="1"/>
       <c r="I443" s="1"/>
       <c r="J443" s="1"/>
@@ -26378,7 +26379,7 @@
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
       <c r="F444" s="1"/>
-      <c r="G444" s="16"/>
+      <c r="G444" s="15"/>
       <c r="H444" s="1"/>
       <c r="I444" s="1"/>
       <c r="J444" s="1"/>
@@ -26431,7 +26432,7 @@
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
       <c r="F445" s="1"/>
-      <c r="G445" s="16"/>
+      <c r="G445" s="15"/>
       <c r="H445" s="1"/>
       <c r="I445" s="1"/>
       <c r="J445" s="1"/>
@@ -26484,7 +26485,7 @@
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
       <c r="F446" s="1"/>
-      <c r="G446" s="16"/>
+      <c r="G446" s="15"/>
       <c r="H446" s="1"/>
       <c r="I446" s="1"/>
       <c r="J446" s="1"/>
@@ -26537,7 +26538,7 @@
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
       <c r="F447" s="1"/>
-      <c r="G447" s="16"/>
+      <c r="G447" s="15"/>
       <c r="H447" s="1"/>
       <c r="I447" s="1"/>
       <c r="J447" s="1"/>
@@ -26590,7 +26591,7 @@
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
       <c r="F448" s="1"/>
-      <c r="G448" s="16"/>
+      <c r="G448" s="15"/>
       <c r="H448" s="1"/>
       <c r="I448" s="1"/>
       <c r="J448" s="1"/>
@@ -26643,7 +26644,7 @@
       <c r="D449" s="1"/>
       <c r="E449" s="1"/>
       <c r="F449" s="1"/>
-      <c r="G449" s="16"/>
+      <c r="G449" s="15"/>
       <c r="H449" s="1"/>
       <c r="I449" s="1"/>
       <c r="J449" s="1"/>
@@ -26696,7 +26697,7 @@
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
       <c r="F450" s="1"/>
-      <c r="G450" s="16"/>
+      <c r="G450" s="15"/>
       <c r="H450" s="1"/>
       <c r="I450" s="1"/>
       <c r="J450" s="1"/>
@@ -26749,7 +26750,7 @@
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
       <c r="F451" s="1"/>
-      <c r="G451" s="16"/>
+      <c r="G451" s="15"/>
       <c r="H451" s="1"/>
       <c r="I451" s="1"/>
       <c r="J451" s="1"/>
@@ -26802,7 +26803,7 @@
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
       <c r="F452" s="1"/>
-      <c r="G452" s="16"/>
+      <c r="G452" s="15"/>
       <c r="H452" s="1"/>
       <c r="I452" s="1"/>
       <c r="J452" s="1"/>
@@ -26855,7 +26856,7 @@
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
       <c r="F453" s="1"/>
-      <c r="G453" s="16"/>
+      <c r="G453" s="15"/>
       <c r="H453" s="1"/>
       <c r="I453" s="1"/>
       <c r="J453" s="1"/>
@@ -26908,7 +26909,7 @@
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
       <c r="F454" s="1"/>
-      <c r="G454" s="16"/>
+      <c r="G454" s="15"/>
       <c r="H454" s="1"/>
       <c r="I454" s="1"/>
       <c r="J454" s="1"/>
@@ -26961,7 +26962,7 @@
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
       <c r="F455" s="1"/>
-      <c r="G455" s="16"/>
+      <c r="G455" s="15"/>
       <c r="H455" s="1"/>
       <c r="I455" s="1"/>
       <c r="J455" s="1"/>
@@ -27014,7 +27015,7 @@
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
       <c r="F456" s="1"/>
-      <c r="G456" s="16"/>
+      <c r="G456" s="15"/>
       <c r="H456" s="1"/>
       <c r="I456" s="1"/>
       <c r="J456" s="1"/>
@@ -27067,7 +27068,7 @@
       <c r="D457" s="1"/>
       <c r="E457" s="1"/>
       <c r="F457" s="1"/>
-      <c r="G457" s="16"/>
+      <c r="G457" s="15"/>
       <c r="H457" s="1"/>
       <c r="I457" s="1"/>
       <c r="J457" s="1"/>
@@ -27120,7 +27121,7 @@
       <c r="D458" s="1"/>
       <c r="E458" s="1"/>
       <c r="F458" s="1"/>
-      <c r="G458" s="16"/>
+      <c r="G458" s="15"/>
       <c r="H458" s="1"/>
       <c r="I458" s="1"/>
       <c r="J458" s="1"/>
@@ -27173,7 +27174,7 @@
       <c r="D459" s="1"/>
       <c r="E459" s="1"/>
       <c r="F459" s="1"/>
-      <c r="G459" s="16"/>
+      <c r="G459" s="15"/>
       <c r="H459" s="1"/>
       <c r="I459" s="1"/>
       <c r="J459" s="1"/>
@@ -27226,7 +27227,7 @@
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
       <c r="F460" s="1"/>
-      <c r="G460" s="16"/>
+      <c r="G460" s="15"/>
       <c r="H460" s="1"/>
       <c r="I460" s="1"/>
       <c r="J460" s="1"/>
@@ -27279,7 +27280,7 @@
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
       <c r="F461" s="1"/>
-      <c r="G461" s="16"/>
+      <c r="G461" s="15"/>
       <c r="H461" s="1"/>
       <c r="I461" s="1"/>
       <c r="J461" s="1"/>
@@ -27332,7 +27333,7 @@
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
       <c r="F462" s="1"/>
-      <c r="G462" s="16"/>
+      <c r="G462" s="15"/>
       <c r="H462" s="1"/>
       <c r="I462" s="1"/>
       <c r="J462" s="1"/>
@@ -27385,7 +27386,7 @@
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
       <c r="F463" s="1"/>
-      <c r="G463" s="16"/>
+      <c r="G463" s="15"/>
       <c r="H463" s="1"/>
       <c r="I463" s="1"/>
       <c r="J463" s="1"/>
@@ -27438,7 +27439,7 @@
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
       <c r="F464" s="1"/>
-      <c r="G464" s="16"/>
+      <c r="G464" s="15"/>
       <c r="H464" s="1"/>
       <c r="I464" s="1"/>
       <c r="J464" s="1"/>
@@ -27491,7 +27492,7 @@
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
       <c r="F465" s="1"/>
-      <c r="G465" s="16"/>
+      <c r="G465" s="15"/>
       <c r="H465" s="1"/>
       <c r="I465" s="1"/>
       <c r="J465" s="1"/>
@@ -27544,7 +27545,7 @@
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
       <c r="F466" s="1"/>
-      <c r="G466" s="16"/>
+      <c r="G466" s="15"/>
       <c r="H466" s="1"/>
       <c r="I466" s="1"/>
       <c r="J466" s="1"/>
@@ -27597,7 +27598,7 @@
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
       <c r="F467" s="1"/>
-      <c r="G467" s="16"/>
+      <c r="G467" s="15"/>
       <c r="H467" s="1"/>
       <c r="I467" s="1"/>
       <c r="J467" s="1"/>
@@ -27650,7 +27651,7 @@
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
       <c r="F468" s="1"/>
-      <c r="G468" s="16"/>
+      <c r="G468" s="15"/>
       <c r="H468" s="1"/>
       <c r="I468" s="1"/>
       <c r="J468" s="1"/>
@@ -27703,7 +27704,7 @@
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
       <c r="F469" s="1"/>
-      <c r="G469" s="16"/>
+      <c r="G469" s="15"/>
       <c r="H469" s="1"/>
       <c r="I469" s="1"/>
       <c r="J469" s="1"/>
@@ -27756,7 +27757,7 @@
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
       <c r="F470" s="1"/>
-      <c r="G470" s="16"/>
+      <c r="G470" s="15"/>
       <c r="H470" s="1"/>
       <c r="I470" s="1"/>
       <c r="J470" s="1"/>
@@ -27809,7 +27810,7 @@
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
       <c r="F471" s="1"/>
-      <c r="G471" s="16"/>
+      <c r="G471" s="15"/>
       <c r="H471" s="1"/>
       <c r="I471" s="1"/>
       <c r="J471" s="1"/>
@@ -27862,7 +27863,7 @@
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
       <c r="F472" s="1"/>
-      <c r="G472" s="16"/>
+      <c r="G472" s="15"/>
       <c r="H472" s="1"/>
       <c r="I472" s="1"/>
       <c r="J472" s="1"/>
@@ -27915,7 +27916,7 @@
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
       <c r="F473" s="1"/>
-      <c r="G473" s="16"/>
+      <c r="G473" s="15"/>
       <c r="H473" s="1"/>
       <c r="I473" s="1"/>
       <c r="J473" s="1"/>
@@ -27968,7 +27969,7 @@
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
       <c r="F474" s="1"/>
-      <c r="G474" s="16"/>
+      <c r="G474" s="15"/>
       <c r="H474" s="1"/>
       <c r="I474" s="1"/>
       <c r="J474" s="1"/>
@@ -28021,7 +28022,7 @@
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
       <c r="F475" s="1"/>
-      <c r="G475" s="16"/>
+      <c r="G475" s="15"/>
       <c r="H475" s="1"/>
       <c r="I475" s="1"/>
       <c r="J475" s="1"/>
@@ -28074,7 +28075,7 @@
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
       <c r="F476" s="1"/>
-      <c r="G476" s="16"/>
+      <c r="G476" s="15"/>
       <c r="H476" s="1"/>
       <c r="I476" s="1"/>
       <c r="J476" s="1"/>
@@ -28127,7 +28128,7 @@
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
       <c r="F477" s="1"/>
-      <c r="G477" s="16"/>
+      <c r="G477" s="15"/>
       <c r="H477" s="1"/>
       <c r="I477" s="1"/>
       <c r="J477" s="1"/>
@@ -28180,7 +28181,7 @@
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
       <c r="F478" s="1"/>
-      <c r="G478" s="16"/>
+      <c r="G478" s="15"/>
       <c r="H478" s="1"/>
       <c r="I478" s="1"/>
       <c r="J478" s="1"/>
@@ -28233,7 +28234,7 @@
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
       <c r="F479" s="1"/>
-      <c r="G479" s="16"/>
+      <c r="G479" s="15"/>
       <c r="H479" s="1"/>
       <c r="I479" s="1"/>
       <c r="J479" s="1"/>
@@ -28286,7 +28287,7 @@
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
       <c r="F480" s="1"/>
-      <c r="G480" s="16"/>
+      <c r="G480" s="15"/>
       <c r="H480" s="1"/>
       <c r="I480" s="1"/>
       <c r="J480" s="1"/>
@@ -28339,7 +28340,7 @@
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
       <c r="F481" s="1"/>
-      <c r="G481" s="16"/>
+      <c r="G481" s="15"/>
       <c r="H481" s="1"/>
       <c r="I481" s="1"/>
       <c r="J481" s="1"/>
@@ -28392,7 +28393,7 @@
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
       <c r="F482" s="1"/>
-      <c r="G482" s="16"/>
+      <c r="G482" s="15"/>
       <c r="H482" s="1"/>
       <c r="I482" s="1"/>
       <c r="J482" s="1"/>
@@ -28445,7 +28446,7 @@
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
       <c r="F483" s="1"/>
-      <c r="G483" s="16"/>
+      <c r="G483" s="15"/>
       <c r="H483" s="1"/>
       <c r="I483" s="1"/>
       <c r="J483" s="1"/>
@@ -28498,7 +28499,7 @@
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
       <c r="F484" s="1"/>
-      <c r="G484" s="16"/>
+      <c r="G484" s="15"/>
       <c r="H484" s="1"/>
       <c r="I484" s="1"/>
       <c r="J484" s="1"/>
@@ -28551,7 +28552,7 @@
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
       <c r="F485" s="1"/>
-      <c r="G485" s="16"/>
+      <c r="G485" s="15"/>
       <c r="H485" s="1"/>
       <c r="I485" s="1"/>
       <c r="J485" s="1"/>
@@ -28604,7 +28605,7 @@
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
       <c r="F486" s="1"/>
-      <c r="G486" s="16"/>
+      <c r="G486" s="15"/>
       <c r="H486" s="1"/>
       <c r="I486" s="1"/>
       <c r="J486" s="1"/>
@@ -28657,7 +28658,7 @@
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
       <c r="F487" s="1"/>
-      <c r="G487" s="16"/>
+      <c r="G487" s="15"/>
       <c r="H487" s="1"/>
       <c r="I487" s="1"/>
       <c r="J487" s="1"/>
@@ -28710,7 +28711,7 @@
       <c r="D488" s="1"/>
       <c r="E488" s="1"/>
       <c r="F488" s="1"/>
-      <c r="G488" s="16"/>
+      <c r="G488" s="15"/>
       <c r="H488" s="1"/>
       <c r="I488" s="1"/>
       <c r="J488" s="1"/>
@@ -28763,7 +28764,7 @@
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
       <c r="F489" s="1"/>
-      <c r="G489" s="16"/>
+      <c r="G489" s="15"/>
       <c r="H489" s="1"/>
       <c r="I489" s="1"/>
       <c r="J489" s="1"/>
@@ -28816,7 +28817,7 @@
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
       <c r="F490" s="1"/>
-      <c r="G490" s="16"/>
+      <c r="G490" s="15"/>
       <c r="H490" s="1"/>
       <c r="I490" s="1"/>
       <c r="J490" s="1"/>
@@ -28869,7 +28870,7 @@
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
       <c r="F491" s="1"/>
-      <c r="G491" s="16"/>
+      <c r="G491" s="15"/>
       <c r="H491" s="1"/>
       <c r="I491" s="1"/>
       <c r="J491" s="1"/>
@@ -28922,7 +28923,7 @@
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
       <c r="F492" s="1"/>
-      <c r="G492" s="16"/>
+      <c r="G492" s="15"/>
       <c r="H492" s="1"/>
       <c r="I492" s="1"/>
       <c r="J492" s="1"/>
@@ -28975,7 +28976,7 @@
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
       <c r="F493" s="1"/>
-      <c r="G493" s="16"/>
+      <c r="G493" s="15"/>
       <c r="H493" s="1"/>
       <c r="I493" s="1"/>
       <c r="J493" s="1"/>
@@ -29028,7 +29029,7 @@
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
       <c r="F494" s="1"/>
-      <c r="G494" s="16"/>
+      <c r="G494" s="15"/>
       <c r="H494" s="1"/>
       <c r="I494" s="1"/>
       <c r="J494" s="1"/>
@@ -29081,7 +29082,7 @@
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
       <c r="F495" s="1"/>
-      <c r="G495" s="16"/>
+      <c r="G495" s="15"/>
       <c r="H495" s="1"/>
       <c r="I495" s="1"/>
       <c r="J495" s="1"/>
@@ -29134,7 +29135,7 @@
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
       <c r="F496" s="1"/>
-      <c r="G496" s="16"/>
+      <c r="G496" s="15"/>
       <c r="H496" s="1"/>
       <c r="I496" s="1"/>
       <c r="J496" s="1"/>
@@ -29187,7 +29188,7 @@
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
       <c r="F497" s="1"/>
-      <c r="G497" s="16"/>
+      <c r="G497" s="15"/>
       <c r="H497" s="1"/>
       <c r="I497" s="1"/>
       <c r="J497" s="1"/>
@@ -29240,7 +29241,7 @@
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
       <c r="F498" s="1"/>
-      <c r="G498" s="16"/>
+      <c r="G498" s="15"/>
       <c r="H498" s="1"/>
       <c r="I498" s="1"/>
       <c r="J498" s="1"/>
@@ -29293,7 +29294,7 @@
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
       <c r="F499" s="1"/>
-      <c r="G499" s="16"/>
+      <c r="G499" s="15"/>
       <c r="H499" s="1"/>
       <c r="I499" s="1"/>
       <c r="J499" s="1"/>
@@ -29346,7 +29347,7 @@
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
       <c r="F500" s="1"/>
-      <c r="G500" s="16"/>
+      <c r="G500" s="15"/>
       <c r="H500" s="1"/>
       <c r="I500" s="1"/>
       <c r="J500" s="1"/>
@@ -29393,7 +29394,22 @@
       <c r="AY500" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AF43" xr:uid="{7868912F-D8D8-4032-AA09-86D4D58A7DF6}"/>
+  <autoFilter ref="A3:AF43" xr:uid="{7868912F-D8D8-4032-AA09-86D4D58A7DF6}">
+    <filterColumn colId="6">
+      <filters blank="1">
+        <filter val="0,20"/>
+        <filter val="0,25"/>
+        <filter val="0,28"/>
+        <filter val="0,30"/>
+        <filter val="0,32"/>
+        <filter val="0,40"/>
+        <filter val="0,50"/>
+        <filter val="0,70"/>
+        <filter val="0,75"/>
+        <filter val="1,00"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="O1:O2"/>
   </mergeCells>
